--- a/warehouse_manager/Database/Items.xlsx
+++ b/warehouse_manager/Database/Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\Warehouse\warehouse_manager\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD50016-33BA-468F-B656-102ECDC78B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EFB648-0487-47D1-8D3F-C601CEEBB190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
@@ -1196,7 +1196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
+    <sheetView topLeftCell="D28" workbookViewId="0">
       <selection activeCell="Q49" sqref="Q49"/>
     </sheetView>
   </sheetViews>
@@ -3913,9 +3913,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AY51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A13" sqref="A13"/>
+      <selection pane="topRight" activeCell="AN38" sqref="AN38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
@@ -9771,10 +9828,10 @@
         <v>0.1</v>
       </c>
       <c r="AN38">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AO38">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AP38">
         <v>0</v>
@@ -10075,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="AL40">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AM40">
         <v>0.7</v>
@@ -10230,7 +10287,7 @@
         <v>0.3</v>
       </c>
       <c r="AL41">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AM41">
         <v>0.6</v>

--- a/warehouse_manager/Database/Items.xlsx
+++ b/warehouse_manager/Database/Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\Warehouse\warehouse_manager\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EFB648-0487-47D1-8D3F-C601CEEBB190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBB09C4-9837-4F2C-8941-39A75CBB730F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="197">
   <si>
     <t>Sn</t>
   </si>
@@ -68,18 +68,21 @@
     <t>Lead Time</t>
   </si>
   <si>
+    <t>Min Order Quantity</t>
+  </si>
+  <si>
     <t>Safety Stock</t>
   </si>
   <si>
+    <t>Reorder Point</t>
+  </si>
+  <si>
     <t>Demand Average</t>
   </si>
   <si>
     <t>Demand Variability</t>
   </si>
   <si>
-    <t>8792296472580</t>
-  </si>
-  <si>
     <t>AA Batteries</t>
   </si>
   <si>
@@ -92,21 +95,12 @@
     <t>[50, 30, 15]</t>
   </si>
   <si>
-    <t>10%</t>
-  </si>
-  <si>
     <t>Supplier A</t>
   </si>
   <si>
-    <t>3 days</t>
-  </si>
-  <si>
     <t>Moderate</t>
   </si>
   <si>
-    <t>8740012615482</t>
-  </si>
-  <si>
     <t>AAA Batteries</t>
   </si>
   <si>
@@ -116,15 +110,9 @@
     <t>[50, 40, 20]</t>
   </si>
   <si>
-    <t>15%</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
-    <t>9861207801640</t>
-  </si>
-  <si>
     <t>HDMI Cable</t>
   </si>
   <si>
@@ -137,21 +125,12 @@
     <t>[180, 10, 5]</t>
   </si>
   <si>
-    <t>150g</t>
-  </si>
-  <si>
     <t>Supplier B</t>
   </si>
   <si>
-    <t>2 days</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
-    <t>6012791254003</t>
-  </si>
-  <si>
     <t>USB Flash Drive</t>
   </si>
   <si>
@@ -161,12 +140,6 @@
     <t>[60, 20, 10]</t>
   </si>
   <si>
-    <t>20g</t>
-  </si>
-  <si>
-    <t>6716502650085</t>
-  </si>
-  <si>
     <t>Wireless Mouse</t>
   </si>
   <si>
@@ -182,9 +155,6 @@
     <t>Supplier C</t>
   </si>
   <si>
-    <t>2043753267054</t>
-  </si>
-  <si>
     <t>Laptop Backpack</t>
   </si>
   <si>
@@ -194,18 +164,9 @@
     <t>[400, 300, 150]</t>
   </si>
   <si>
-    <t>800g</t>
-  </si>
-  <si>
     <t>Supplier D</t>
   </si>
   <si>
-    <t>7 days</t>
-  </si>
-  <si>
-    <t>6168021634974</t>
-  </si>
-  <si>
     <t>Bluetooth Speaker</t>
   </si>
   <si>
@@ -215,15 +176,6 @@
     <t>[150, 100, 80]</t>
   </si>
   <si>
-    <t>500g</t>
-  </si>
-  <si>
-    <t>20%</t>
-  </si>
-  <si>
-    <t>7688077832904</t>
-  </si>
-  <si>
     <t>Wireless Headphones</t>
   </si>
   <si>
@@ -233,9 +185,6 @@
     <t>[200, 150, 100]</t>
   </si>
   <si>
-    <t>8605951231424</t>
-  </si>
-  <si>
     <t>Soccer Ball</t>
   </si>
   <si>
@@ -245,30 +194,15 @@
     <t>[220, 220, 220]</t>
   </si>
   <si>
-    <t>400g</t>
-  </si>
-  <si>
     <t>Supplier H</t>
   </si>
   <si>
-    <t>4 days</t>
-  </si>
-  <si>
-    <t>1163238761072</t>
-  </si>
-  <si>
     <t>Basketball</t>
   </si>
   <si>
     <t>[240, 240, 240]</t>
   </si>
   <si>
-    <t>600g</t>
-  </si>
-  <si>
-    <t>6316892945078</t>
-  </si>
-  <si>
     <t>Tennis Racket</t>
   </si>
   <si>
@@ -281,9 +215,6 @@
     <t>Supplier I</t>
   </si>
   <si>
-    <t>1865097032972</t>
-  </si>
-  <si>
     <t>Yoga Mat</t>
   </si>
   <si>
@@ -293,15 +224,9 @@
     <t>[600, 600, 6]</t>
   </si>
   <si>
-    <t>1.2kg</t>
-  </si>
-  <si>
     <t>Supplier J</t>
   </si>
   <si>
-    <t>9418553859922</t>
-  </si>
-  <si>
     <t>Resistance Bands</t>
   </si>
   <si>
@@ -311,9 +236,6 @@
     <t>[200, 150, 50]</t>
   </si>
   <si>
-    <t>3225967840242</t>
-  </si>
-  <si>
     <t>Aromatherapy Diffuser</t>
   </si>
   <si>
@@ -326,12 +248,6 @@
     <t>Supplier K</t>
   </si>
   <si>
-    <t>5 days</t>
-  </si>
-  <si>
-    <t>3675625841261</t>
-  </si>
-  <si>
     <t>Essential Oil Set</t>
   </si>
   <si>
@@ -341,9 +257,6 @@
     <t>[150, 100, 50]</t>
   </si>
   <si>
-    <t>8710073997389</t>
-  </si>
-  <si>
     <t>Yoga Block</t>
   </si>
   <si>
@@ -353,12 +266,6 @@
     <t>[230, 150, 100]</t>
   </si>
   <si>
-    <t>200g</t>
-  </si>
-  <si>
-    <t>9628820067891</t>
-  </si>
-  <si>
     <t>Meditation Cushion</t>
   </si>
   <si>
@@ -368,9 +275,6 @@
     <t>[350, 350, 150]</t>
   </si>
   <si>
-    <t>7838779560530</t>
-  </si>
-  <si>
     <t>Facial Cleanser</t>
   </si>
   <si>
@@ -386,9 +290,6 @@
     <t>Supplier L</t>
   </si>
   <si>
-    <t>7561851192224</t>
-  </si>
-  <si>
     <t>Moisturizing Cream</t>
   </si>
   <si>
@@ -401,9 +302,6 @@
     <t>[80, 80, 100]</t>
   </si>
   <si>
-    <t>1836885216532</t>
-  </si>
-  <si>
     <t>Lipstick</t>
   </si>
   <si>
@@ -416,9 +314,6 @@
     <t>Supplier M</t>
   </si>
   <si>
-    <t>3205998343537</t>
-  </si>
-  <si>
     <t>Eyeshadow Palette</t>
   </si>
   <si>
@@ -428,9 +323,6 @@
     <t>[120, 80, 20]</t>
   </si>
   <si>
-    <t>3176620311746</t>
-  </si>
-  <si>
     <t>Mascara</t>
   </si>
   <si>
@@ -440,9 +332,6 @@
     <t>[30, 30, 150]</t>
   </si>
   <si>
-    <t>9786209571178</t>
-  </si>
-  <si>
     <t>Pillow</t>
   </si>
   <si>
@@ -455,9 +344,6 @@
     <t>Supplier N</t>
   </si>
   <si>
-    <t>2435806330824</t>
-  </si>
-  <si>
     <t>Bed Sheets</t>
   </si>
   <si>
@@ -470,15 +356,9 @@
     <t>[200, 180, 50]</t>
   </si>
   <si>
-    <t>1.5kg</t>
-  </si>
-  <si>
     <t>Supplier O</t>
   </si>
   <si>
-    <t>5695885381450</t>
-  </si>
-  <si>
     <t>Coffee Maker</t>
   </si>
   <si>
@@ -488,15 +368,9 @@
     <t>[300, 200, 400]</t>
   </si>
   <si>
-    <t>2.5kg</t>
-  </si>
-  <si>
     <t>Supplier P</t>
   </si>
   <si>
-    <t>2648940918652</t>
-  </si>
-  <si>
     <t>Slow Cooker</t>
   </si>
   <si>
@@ -506,12 +380,6 @@
     <t>[350, 300, 250]</t>
   </si>
   <si>
-    <t>4kg</t>
-  </si>
-  <si>
-    <t>5771394278981</t>
-  </si>
-  <si>
     <t>Steam Iron</t>
   </si>
   <si>
@@ -521,9 +389,6 @@
     <t>Supplier Q</t>
   </si>
   <si>
-    <t>3533529471857</t>
-  </si>
-  <si>
     <t>Vacuum Cleaner</t>
   </si>
   <si>
@@ -533,24 +398,15 @@
     <t>[400, 300, 250]</t>
   </si>
   <si>
-    <t>5kg</t>
-  </si>
-  <si>
     <t>Supplier R</t>
   </si>
   <si>
-    <t>7398454314502</t>
-  </si>
-  <si>
     <t>Bath Towels</t>
   </si>
   <si>
     <t>Soft and absorbent bath towels</t>
   </si>
   <si>
-    <t>7636536148275</t>
-  </si>
-  <si>
     <t>Knife Set</t>
   </si>
   <si>
@@ -560,15 +416,9 @@
     <t>[350, 200, 50]</t>
   </si>
   <si>
-    <t>2kg</t>
-  </si>
-  <si>
     <t>Supplier S</t>
   </si>
   <si>
-    <t>2654093619393</t>
-  </si>
-  <si>
     <t>Cookware Set</t>
   </si>
   <si>
@@ -581,9 +431,6 @@
     <t>Supplier T</t>
   </si>
   <si>
-    <t>8222252841707</t>
-  </si>
-  <si>
     <t>Wall Clock</t>
   </si>
   <si>
@@ -596,9 +443,6 @@
     <t>Supplier U</t>
   </si>
   <si>
-    <t>6263490087549</t>
-  </si>
-  <si>
     <t>Coffee Mug</t>
   </si>
   <si>
@@ -608,15 +452,9 @@
     <t>[100, 80, 120]</t>
   </si>
   <si>
-    <t>300g</t>
-  </si>
-  <si>
     <t>Supplier V</t>
   </si>
   <si>
-    <t>4657009497505</t>
-  </si>
-  <si>
     <t>Cutting Board</t>
   </si>
   <si>
@@ -626,18 +464,12 @@
     <t>[300, 200, 20]</t>
   </si>
   <si>
-    <t>2853659988987</t>
-  </si>
-  <si>
     <t>Mixing Bowl Set</t>
   </si>
   <si>
     <t>Nesting mixing bowls</t>
   </si>
   <si>
-    <t>2928949171775</t>
-  </si>
-  <si>
     <t>Blender</t>
   </si>
   <si>
@@ -650,9 +482,6 @@
     <t>Supplier W</t>
   </si>
   <si>
-    <t>7496733422534</t>
-  </si>
-  <si>
     <t>Food Storage Containers</t>
   </si>
   <si>
@@ -665,9 +494,6 @@
     <t>Supplier X</t>
   </si>
   <si>
-    <t>7250030042290</t>
-  </si>
-  <si>
     <t>Toolbox</t>
   </si>
   <si>
@@ -677,24 +503,15 @@
     <t>[400, 200, 200]</t>
   </si>
   <si>
-    <t>3kg</t>
-  </si>
-  <si>
     <t>Supplier Y</t>
   </si>
   <si>
-    <t>8635315128593</t>
-  </si>
-  <si>
     <t>Screwdriver Set</t>
   </si>
   <si>
     <t>Set of screwdrivers with various sizes and types</t>
   </si>
   <si>
-    <t>1991831479117</t>
-  </si>
-  <si>
     <t>Power Drill</t>
   </si>
   <si>
@@ -707,9 +524,6 @@
     <t>Supplier Z</t>
   </si>
   <si>
-    <t>6983968005861</t>
-  </si>
-  <si>
     <t>Paint Roller Kit</t>
   </si>
   <si>
@@ -719,18 +533,12 @@
     <t>[400, 150, 50]</t>
   </si>
   <si>
-    <t>8582231850503</t>
-  </si>
-  <si>
     <t>Measuring Tape</t>
   </si>
   <si>
     <t>Retractable measuring tape</t>
   </si>
   <si>
-    <t>1140002674293</t>
-  </si>
-  <si>
     <t>Hammer</t>
   </si>
   <si>
@@ -740,18 +548,12 @@
     <t>[300, 100, 50]</t>
   </si>
   <si>
-    <t>6173200653703</t>
-  </si>
-  <si>
     <t>Screw Assortment Kit</t>
   </si>
   <si>
     <t>Assorted screws and nails set</t>
   </si>
   <si>
-    <t>1994319705304</t>
-  </si>
-  <si>
     <t>Utility Knife</t>
   </si>
   <si>
@@ -761,9 +563,6 @@
     <t>[200, 50, 20]</t>
   </si>
   <si>
-    <t>8469701745293</t>
-  </si>
-  <si>
     <t>Sanding Block</t>
   </si>
   <si>
@@ -773,9 +572,6 @@
     <t>[100, 70, 30]</t>
   </si>
   <si>
-    <t>4347668189572</t>
-  </si>
-  <si>
     <t>Paint Brush Set</t>
   </si>
   <si>
@@ -785,9 +581,6 @@
     <t>[250, 100, 50]</t>
   </si>
   <si>
-    <t>7011258015397</t>
-  </si>
-  <si>
     <t>Level</t>
   </si>
   <si>
@@ -797,9 +590,6 @@
     <t>[300, 40, 20]</t>
   </si>
   <si>
-    <t>5836344443744</t>
-  </si>
-  <si>
     <t>LED Bulb</t>
   </si>
   <si>
@@ -809,15 +599,9 @@
     <t>[100, 50, 50]</t>
   </si>
   <si>
-    <t>250g</t>
-  </si>
-  <si>
     <t>Supplier E</t>
   </si>
   <si>
-    <t>4574688715507</t>
-  </si>
-  <si>
     <t>Floor Lamp</t>
   </si>
   <si>
@@ -825,9 +609,6 @@
   </si>
   <si>
     <t>[500, 300, 300]</t>
-  </si>
-  <si>
-    <t>5000g</t>
   </si>
   <si>
     <t>Product</t>
@@ -906,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -914,6 +695,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1194,15 +979,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="Q49" sqref="Q49"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
@@ -1217,85 +1002,93 @@
     <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>18</v>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>8792296472580</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1309,8 +1102,8 @@
       <c r="K2">
         <v>399</v>
       </c>
-      <c r="L2" t="s">
-        <v>23</v>
+      <c r="L2">
+        <v>10</v>
       </c>
       <c r="M2">
         <v>359</v>
@@ -1318,37 +1111,43 @@
       <c r="N2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>2300</v>
+      </c>
+      <c r="Q2">
+        <v>108</v>
+      </c>
+      <c r="R2">
+        <v>270</v>
+      </c>
+      <c r="S2">
+        <v>900</v>
+      </c>
+      <c r="T2" t="s">
         <v>25</v>
       </c>
-      <c r="P2">
-        <v>50</v>
-      </c>
-      <c r="Q2">
-        <v>900</v>
-      </c>
-      <c r="R2" t="s">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>8740012615482</v>
+      </c>
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1362,8 +1161,8 @@
       <c r="K3">
         <v>499</v>
       </c>
-      <c r="L3" t="s">
-        <v>31</v>
+      <c r="L3">
+        <v>15</v>
       </c>
       <c r="M3">
         <v>424</v>
@@ -1371,40 +1170,46 @@
       <c r="N3" t="s">
         <v>24</v>
       </c>
-      <c r="O3" t="s">
-        <v>25</v>
+      <c r="O3">
+        <v>3</v>
       </c>
       <c r="P3">
-        <v>50</v>
+        <v>1800</v>
       </c>
       <c r="Q3">
+        <v>84</v>
+      </c>
+      <c r="R3">
+        <v>210</v>
+      </c>
+      <c r="S3">
         <v>700</v>
       </c>
-      <c r="R3" t="s">
-        <v>32</v>
+      <c r="T3" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>33</v>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>9861207801640</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="G4">
+        <v>150</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1422,42 +1227,48 @@
         <v>999</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>500</v>
+      </c>
+      <c r="Q4">
+        <v>16</v>
+      </c>
+      <c r="R4">
         <v>40</v>
       </c>
-      <c r="P4">
-        <v>20</v>
-      </c>
-      <c r="Q4">
+      <c r="S4">
         <v>200</v>
       </c>
-      <c r="R4" t="s">
-        <v>41</v>
+      <c r="T4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>42</v>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>6012791254003</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1475,39 +1286,45 @@
         <v>1499</v>
       </c>
       <c r="N5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>1800</v>
+      </c>
+      <c r="Q5">
+        <v>55.999999999999993</v>
+      </c>
+      <c r="R5">
+        <v>140</v>
+      </c>
+      <c r="S5">
+        <v>700</v>
+      </c>
+      <c r="T5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>6716502650085</v>
+      </c>
+      <c r="B6" t="s">
         <v>39</v>
       </c>
-      <c r="O5" t="s">
+      <c r="C6" t="s">
         <v>40</v>
-      </c>
-      <c r="P5">
-        <v>30</v>
-      </c>
-      <c r="Q5">
-        <v>700</v>
-      </c>
-      <c r="R5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1525,42 +1342,48 @@
         <v>1999</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>500</v>
+      </c>
+      <c r="Q6">
+        <v>24</v>
+      </c>
+      <c r="R6">
+        <v>60</v>
+      </c>
+      <c r="S6">
+        <v>200</v>
+      </c>
+      <c r="T6" t="s">
         <v>25</v>
       </c>
-      <c r="P6">
-        <v>15</v>
-      </c>
-      <c r="Q6">
-        <v>200</v>
-      </c>
-      <c r="R6" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>53</v>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>2043753267054</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="G7">
+        <v>800</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -1578,42 +1401,48 @@
         <v>3999</v>
       </c>
       <c r="N7" t="s">
-        <v>58</v>
-      </c>
-      <c r="O7" t="s">
-        <v>59</v>
+        <v>47</v>
+      </c>
+      <c r="O7">
+        <v>7</v>
       </c>
       <c r="P7">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="Q7">
+        <v>42</v>
+      </c>
+      <c r="R7">
+        <v>105</v>
+      </c>
+      <c r="S7">
         <v>150</v>
       </c>
-      <c r="R7" t="s">
-        <v>32</v>
+      <c r="T7" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>60</v>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>6168021634974</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" t="s">
-        <v>64</v>
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>500</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1627,46 +1456,52 @@
       <c r="K8">
         <v>4999</v>
       </c>
-      <c r="L8" t="s">
-        <v>65</v>
+      <c r="L8">
+        <v>20</v>
       </c>
       <c r="M8">
         <v>3999</v>
       </c>
       <c r="N8" t="s">
-        <v>52</v>
-      </c>
-      <c r="O8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>800</v>
+      </c>
+      <c r="Q8">
+        <v>36</v>
+      </c>
+      <c r="R8">
+        <v>90</v>
+      </c>
+      <c r="S8">
+        <v>300</v>
+      </c>
+      <c r="T8" t="s">
         <v>25</v>
       </c>
-      <c r="P8">
-        <v>10</v>
-      </c>
-      <c r="Q8">
-        <v>300</v>
-      </c>
-      <c r="R8" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>66</v>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>7688077832904</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1680,49 +1515,55 @@
       <c r="K9">
         <v>7999</v>
       </c>
-      <c r="L9" t="s">
-        <v>23</v>
+      <c r="L9">
+        <v>10</v>
       </c>
       <c r="M9">
         <v>7199</v>
       </c>
       <c r="N9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O9" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>1000</v>
+      </c>
+      <c r="Q9">
+        <v>48</v>
+      </c>
+      <c r="R9">
+        <v>120</v>
+      </c>
+      <c r="S9">
+        <v>400</v>
+      </c>
+      <c r="T9" t="s">
         <v>25</v>
       </c>
-      <c r="P9">
-        <v>8</v>
-      </c>
-      <c r="Q9">
-        <v>400</v>
-      </c>
-      <c r="R9" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>70</v>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>8605951231424</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" t="s">
-        <v>74</v>
+        <v>56</v>
+      </c>
+      <c r="G10">
+        <v>400</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -1740,42 +1581,48 @@
         <v>2499</v>
       </c>
       <c r="N10" t="s">
-        <v>75</v>
-      </c>
-      <c r="O10" t="s">
-        <v>76</v>
+        <v>57</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="Q10">
+        <v>48</v>
+      </c>
+      <c r="R10">
+        <v>120</v>
+      </c>
+      <c r="S10">
         <v>300</v>
       </c>
-      <c r="R10" t="s">
-        <v>26</v>
+      <c r="T10" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>77</v>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>1163238761072</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" t="s">
-        <v>80</v>
+        <v>59</v>
+      </c>
+      <c r="G11">
+        <v>600</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1793,39 +1640,45 @@
         <v>1999</v>
       </c>
       <c r="N11" t="s">
-        <v>75</v>
-      </c>
-      <c r="O11" t="s">
-        <v>76</v>
+        <v>57</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>8</v>
+        <v>500</v>
       </c>
       <c r="Q11">
+        <v>32</v>
+      </c>
+      <c r="R11">
+        <v>80</v>
+      </c>
+      <c r="S11">
         <v>200</v>
       </c>
-      <c r="R11" t="s">
-        <v>32</v>
+      <c r="T11" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>81</v>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>6316892945078</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1843,42 +1696,48 @@
         <v>3999</v>
       </c>
       <c r="N12" t="s">
-        <v>85</v>
-      </c>
-      <c r="O12" t="s">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
       </c>
       <c r="P12">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="Q12">
+        <v>8</v>
+      </c>
+      <c r="R12">
+        <v>20</v>
+      </c>
+      <c r="S12">
         <v>100</v>
       </c>
-      <c r="R12" t="s">
-        <v>26</v>
+      <c r="T12" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>86</v>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>1865097032972</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" t="s">
-        <v>90</v>
+        <v>66</v>
+      </c>
+      <c r="G13">
+        <v>1200</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1892,46 +1751,52 @@
       <c r="K13">
         <v>3499</v>
       </c>
-      <c r="L13" t="s">
-        <v>23</v>
+      <c r="L13">
+        <v>10</v>
       </c>
       <c r="M13">
         <v>3149</v>
       </c>
       <c r="N13" t="s">
-        <v>91</v>
-      </c>
-      <c r="O13" t="s">
-        <v>25</v>
+        <v>67</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
       </c>
       <c r="P13">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="Q13">
+        <v>36</v>
+      </c>
+      <c r="R13">
+        <v>90</v>
+      </c>
+      <c r="S13">
         <v>300</v>
       </c>
-      <c r="R13" t="s">
-        <v>32</v>
+      <c r="T13" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>92</v>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>9418553859922</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1949,42 +1814,48 @@
         <v>2499</v>
       </c>
       <c r="N14" t="s">
-        <v>91</v>
-      </c>
-      <c r="O14" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <v>1300</v>
+      </c>
+      <c r="Q14">
+        <v>60</v>
+      </c>
+      <c r="R14">
+        <v>150</v>
+      </c>
+      <c r="S14">
+        <v>500</v>
+      </c>
+      <c r="T14" t="s">
         <v>25</v>
       </c>
-      <c r="P14">
-        <v>8</v>
-      </c>
-      <c r="Q14">
-        <v>500</v>
-      </c>
-      <c r="R14" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>96</v>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>3225967840242</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" t="s">
-        <v>64</v>
+        <v>73</v>
+      </c>
+      <c r="G15">
+        <v>500</v>
       </c>
       <c r="H15">
         <v>4</v>
@@ -1998,46 +1869,52 @@
       <c r="K15">
         <v>3499</v>
       </c>
-      <c r="L15" t="s">
-        <v>23</v>
+      <c r="L15">
+        <v>10</v>
       </c>
       <c r="M15">
         <v>3149</v>
       </c>
       <c r="N15" t="s">
-        <v>100</v>
-      </c>
-      <c r="O15" t="s">
-        <v>101</v>
+        <v>74</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
       </c>
       <c r="P15">
-        <v>10</v>
+        <v>1600</v>
       </c>
       <c r="Q15">
+        <v>120</v>
+      </c>
+      <c r="R15">
+        <v>300</v>
+      </c>
+      <c r="S15">
         <v>600</v>
       </c>
-      <c r="R15" t="s">
-        <v>32</v>
+      <c r="T15" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>102</v>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>3675625841261</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2051,49 +1928,55 @@
       <c r="K16">
         <v>4999</v>
       </c>
-      <c r="L16" t="s">
-        <v>31</v>
+      <c r="L16">
+        <v>15</v>
       </c>
       <c r="M16">
         <v>4249</v>
       </c>
       <c r="N16" t="s">
-        <v>100</v>
-      </c>
-      <c r="O16" t="s">
-        <v>101</v>
+        <v>74</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
       </c>
       <c r="P16">
-        <v>8</v>
+        <v>800</v>
       </c>
       <c r="Q16">
+        <v>60</v>
+      </c>
+      <c r="R16">
+        <v>150</v>
+      </c>
+      <c r="S16">
         <v>300</v>
       </c>
-      <c r="R16" t="s">
-        <v>26</v>
+      <c r="T16" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>106</v>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>8710073997389</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" t="s">
-        <v>110</v>
+        <v>80</v>
+      </c>
+      <c r="G17">
+        <v>200</v>
       </c>
       <c r="H17">
         <v>9</v>
@@ -2111,42 +1994,48 @@
         <v>1499</v>
       </c>
       <c r="N17" t="s">
-        <v>91</v>
-      </c>
-      <c r="O17" t="s">
-        <v>25</v>
+        <v>67</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Q17">
+        <v>2.4</v>
+      </c>
+      <c r="R17">
+        <v>6</v>
+      </c>
+      <c r="S17">
         <v>20</v>
       </c>
-      <c r="R17" t="s">
-        <v>32</v>
+      <c r="T17" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>111</v>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>9628820067891</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" t="s">
-        <v>57</v>
+        <v>83</v>
+      </c>
+      <c r="G18">
+        <v>800</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2164,39 +2053,45 @@
         <v>3999</v>
       </c>
       <c r="N18" t="s">
-        <v>91</v>
-      </c>
-      <c r="O18" t="s">
-        <v>25</v>
+        <v>67</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="Q18">
+        <v>12</v>
+      </c>
+      <c r="R18">
+        <v>30</v>
+      </c>
+      <c r="S18">
         <v>100</v>
       </c>
-      <c r="R18" t="s">
-        <v>32</v>
+      <c r="T18" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>115</v>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>7838779560530</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -2214,39 +2109,45 @@
         <v>1999</v>
       </c>
       <c r="N19" t="s">
-        <v>120</v>
-      </c>
-      <c r="O19" t="s">
-        <v>76</v>
+        <v>88</v>
+      </c>
+      <c r="O19">
+        <v>4</v>
       </c>
       <c r="P19">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Q19">
+        <v>64</v>
+      </c>
+      <c r="R19">
+        <v>160</v>
+      </c>
+      <c r="S19">
         <v>400</v>
       </c>
-      <c r="R19" t="s">
-        <v>26</v>
+      <c r="T19" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>121</v>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>7561851192224</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="F20" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2264,39 +2165,45 @@
         <v>2999</v>
       </c>
       <c r="N20" t="s">
+        <v>88</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <v>800</v>
+      </c>
+      <c r="Q20">
+        <v>48</v>
+      </c>
+      <c r="R20">
         <v>120</v>
       </c>
-      <c r="O20" t="s">
-        <v>76</v>
-      </c>
-      <c r="P20">
-        <v>8</v>
-      </c>
-      <c r="Q20">
+      <c r="S20">
         <v>300</v>
       </c>
-      <c r="R20" t="s">
-        <v>32</v>
+      <c r="T20" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>126</v>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>1836885216532</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2314,39 +2221,45 @@
         <v>1799</v>
       </c>
       <c r="N21" t="s">
-        <v>130</v>
-      </c>
-      <c r="O21" t="s">
+        <v>96</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <v>2100</v>
+      </c>
+      <c r="Q21">
+        <v>64</v>
+      </c>
+      <c r="R21">
+        <v>160</v>
+      </c>
+      <c r="S21">
+        <v>800</v>
+      </c>
+      <c r="T21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>3205998343537</v>
+      </c>
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" t="s">
         <v>40</v>
-      </c>
-      <c r="P21">
-        <v>15</v>
-      </c>
-      <c r="Q21">
-        <v>800</v>
-      </c>
-      <c r="R21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" t="s">
-        <v>49</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F22" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2364,39 +2277,45 @@
         <v>3999</v>
       </c>
       <c r="N22" t="s">
-        <v>130</v>
-      </c>
-      <c r="O22" t="s">
+        <v>96</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <v>1300</v>
+      </c>
+      <c r="Q22">
         <v>40</v>
       </c>
-      <c r="P22">
-        <v>8</v>
-      </c>
-      <c r="Q22">
+      <c r="R22">
+        <v>100</v>
+      </c>
+      <c r="S22">
         <v>500</v>
       </c>
-      <c r="R22" t="s">
-        <v>32</v>
+      <c r="T22" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>135</v>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>3176620311746</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="F23" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2414,42 +2333,48 @@
         <v>2499</v>
       </c>
       <c r="N23" t="s">
-        <v>130</v>
-      </c>
-      <c r="O23" t="s">
-        <v>40</v>
+        <v>96</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
       </c>
       <c r="P23">
-        <v>10</v>
+        <v>1600</v>
       </c>
       <c r="Q23">
+        <v>48</v>
+      </c>
+      <c r="R23">
+        <v>120</v>
+      </c>
+      <c r="S23">
         <v>600</v>
       </c>
-      <c r="R23" t="s">
-        <v>26</v>
+      <c r="T23" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>139</v>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>9786209571178</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="F24" t="s">
-        <v>142</v>
-      </c>
-      <c r="G24" t="s">
-        <v>64</v>
+        <v>105</v>
+      </c>
+      <c r="G24">
+        <v>500</v>
       </c>
       <c r="H24">
         <v>4</v>
@@ -2467,42 +2392,48 @@
         <v>2499</v>
       </c>
       <c r="N24" t="s">
-        <v>143</v>
-      </c>
-      <c r="O24" t="s">
-        <v>25</v>
+        <v>106</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="Q24">
+        <v>24</v>
+      </c>
+      <c r="R24">
+        <v>60</v>
+      </c>
+      <c r="S24">
         <v>200</v>
       </c>
-      <c r="R24" t="s">
-        <v>32</v>
+      <c r="T24" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>2435806330824</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="F25" t="s">
-        <v>148</v>
-      </c>
-      <c r="G25" t="s">
-        <v>149</v>
+        <v>110</v>
+      </c>
+      <c r="G25">
+        <v>1500</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2520,42 +2451,48 @@
         <v>3999</v>
       </c>
       <c r="N25" t="s">
+        <v>111</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25">
+        <v>400</v>
+      </c>
+      <c r="Q25">
+        <v>24</v>
+      </c>
+      <c r="R25">
+        <v>60</v>
+      </c>
+      <c r="S25">
         <v>150</v>
       </c>
-      <c r="O25" t="s">
-        <v>76</v>
-      </c>
-      <c r="P25">
-        <v>8</v>
-      </c>
-      <c r="Q25">
-        <v>150</v>
-      </c>
-      <c r="R25" t="s">
-        <v>26</v>
+      <c r="T25" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>151</v>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>5695885381450</v>
       </c>
       <c r="B26" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="F26" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" t="s">
-        <v>155</v>
+        <v>114</v>
+      </c>
+      <c r="G26">
+        <v>2500</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -2569,49 +2506,55 @@
       <c r="K26">
         <v>6999</v>
       </c>
-      <c r="L26" t="s">
-        <v>65</v>
+      <c r="L26">
+        <v>20</v>
       </c>
       <c r="M26">
         <v>5599</v>
       </c>
       <c r="N26" t="s">
-        <v>156</v>
-      </c>
-      <c r="O26" t="s">
-        <v>40</v>
+        <v>115</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
       </c>
       <c r="P26">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="Q26">
+        <v>8</v>
+      </c>
+      <c r="R26">
+        <v>20</v>
+      </c>
+      <c r="S26">
         <v>100</v>
       </c>
-      <c r="R26" t="s">
-        <v>41</v>
+      <c r="T26" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>157</v>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>2648940918652</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="F27" t="s">
-        <v>160</v>
-      </c>
-      <c r="G27" t="s">
-        <v>161</v>
+        <v>118</v>
+      </c>
+      <c r="G27">
+        <v>4000</v>
       </c>
       <c r="H27">
         <v>4</v>
@@ -2625,49 +2568,55 @@
       <c r="K27">
         <v>4999</v>
       </c>
-      <c r="L27" t="s">
-        <v>31</v>
+      <c r="L27">
+        <v>15</v>
       </c>
       <c r="M27">
         <v>4249</v>
       </c>
       <c r="N27" t="s">
-        <v>156</v>
-      </c>
-      <c r="O27" t="s">
-        <v>40</v>
+        <v>115</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
       </c>
       <c r="P27">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="Q27">
+        <v>4</v>
+      </c>
+      <c r="R27">
+        <v>10</v>
+      </c>
+      <c r="S27">
         <v>50</v>
       </c>
-      <c r="R27" t="s">
-        <v>32</v>
+      <c r="T27" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>162</v>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>5771394278981</v>
       </c>
       <c r="B28" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="F28" t="s">
-        <v>160</v>
-      </c>
-      <c r="G28" t="s">
-        <v>90</v>
+        <v>118</v>
+      </c>
+      <c r="G28">
+        <v>1200</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -2685,42 +2634,48 @@
         <v>3499</v>
       </c>
       <c r="N28" t="s">
-        <v>165</v>
-      </c>
-      <c r="O28" t="s">
-        <v>101</v>
+        <v>121</v>
+      </c>
+      <c r="O28">
+        <v>5</v>
       </c>
       <c r="P28">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="Q28">
+        <v>24</v>
+      </c>
+      <c r="R28">
+        <v>60</v>
+      </c>
+      <c r="S28">
         <v>120</v>
       </c>
-      <c r="R28" t="s">
-        <v>32</v>
+      <c r="T28" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>166</v>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>3533529471857</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="F29" t="s">
-        <v>169</v>
-      </c>
-      <c r="G29" t="s">
-        <v>170</v>
+        <v>124</v>
+      </c>
+      <c r="G29">
+        <v>5000</v>
       </c>
       <c r="H29">
         <v>4</v>
@@ -2734,49 +2689,55 @@
       <c r="K29">
         <v>12999</v>
       </c>
-      <c r="L29" t="s">
-        <v>23</v>
+      <c r="L29">
+        <v>10</v>
       </c>
       <c r="M29">
         <v>11699</v>
       </c>
       <c r="N29" t="s">
-        <v>171</v>
-      </c>
-      <c r="O29" t="s">
+        <v>125</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+      <c r="P29">
+        <v>400</v>
+      </c>
+      <c r="Q29">
+        <v>18</v>
+      </c>
+      <c r="R29">
+        <v>45</v>
+      </c>
+      <c r="S29">
+        <v>150</v>
+      </c>
+      <c r="T29" t="s">
         <v>25</v>
       </c>
-      <c r="P29">
-        <v>8</v>
-      </c>
-      <c r="Q29">
-        <v>150</v>
-      </c>
-      <c r="R29" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>172</v>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>7398454314502</v>
       </c>
       <c r="B30" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="D30">
         <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="F30" t="s">
-        <v>169</v>
-      </c>
-      <c r="G30" t="s">
-        <v>80</v>
+        <v>124</v>
+      </c>
+      <c r="G30">
+        <v>600</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -2794,42 +2755,48 @@
         <v>3499</v>
       </c>
       <c r="N30" t="s">
-        <v>150</v>
-      </c>
-      <c r="O30" t="s">
-        <v>76</v>
+        <v>111</v>
+      </c>
+      <c r="O30">
+        <v>4</v>
       </c>
       <c r="P30">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="Q30">
+        <v>32</v>
+      </c>
+      <c r="R30">
+        <v>80</v>
+      </c>
+      <c r="S30">
         <v>200</v>
       </c>
-      <c r="R30" t="s">
-        <v>32</v>
+      <c r="T30" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>175</v>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>7636536148275</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="F31" t="s">
-        <v>178</v>
-      </c>
-      <c r="G31" t="s">
-        <v>179</v>
+        <v>130</v>
+      </c>
+      <c r="G31">
+        <v>2000</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -2843,46 +2810,52 @@
       <c r="K31">
         <v>7999</v>
       </c>
-      <c r="L31" t="s">
-        <v>31</v>
+      <c r="L31">
+        <v>15</v>
       </c>
       <c r="M31">
         <v>6799</v>
       </c>
       <c r="N31" t="s">
-        <v>180</v>
-      </c>
-      <c r="O31" t="s">
-        <v>40</v>
+        <v>131</v>
+      </c>
+      <c r="O31">
+        <v>2</v>
       </c>
       <c r="P31">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="Q31">
+        <v>5.6000000000000014</v>
+      </c>
+      <c r="R31">
+        <v>14</v>
+      </c>
+      <c r="S31">
         <v>70</v>
       </c>
-      <c r="R31" t="s">
-        <v>26</v>
+      <c r="T31" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>181</v>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>2654093619393</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="F32" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -2900,42 +2873,48 @@
         <v>16999</v>
       </c>
       <c r="N32" t="s">
-        <v>185</v>
-      </c>
-      <c r="O32" t="s">
-        <v>101</v>
+        <v>135</v>
+      </c>
+      <c r="O32">
+        <v>5</v>
       </c>
       <c r="P32">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="Q32">
+        <v>10</v>
+      </c>
+      <c r="R32">
+        <v>25</v>
+      </c>
+      <c r="S32">
         <v>50</v>
       </c>
-      <c r="R32" t="s">
-        <v>26</v>
+      <c r="T32" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>186</v>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>8222252841707</v>
       </c>
       <c r="B33" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="F33" t="s">
-        <v>189</v>
-      </c>
-      <c r="G33" t="s">
-        <v>57</v>
+        <v>138</v>
+      </c>
+      <c r="G33">
+        <v>800</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -2953,42 +2932,48 @@
         <v>2499</v>
       </c>
       <c r="N33" t="s">
-        <v>190</v>
-      </c>
-      <c r="O33" t="s">
-        <v>25</v>
+        <v>139</v>
+      </c>
+      <c r="O33">
+        <v>3</v>
       </c>
       <c r="P33">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="Q33">
+        <v>30</v>
+      </c>
+      <c r="R33">
+        <v>75</v>
+      </c>
+      <c r="S33">
         <v>250</v>
       </c>
-      <c r="R33" t="s">
-        <v>32</v>
+      <c r="T33" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>191</v>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>6263490087549</v>
       </c>
       <c r="B34" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>193</v>
+        <v>141</v>
       </c>
       <c r="F34" t="s">
-        <v>194</v>
-      </c>
-      <c r="G34" t="s">
-        <v>195</v>
+        <v>142</v>
+      </c>
+      <c r="G34">
+        <v>300</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3006,42 +2991,48 @@
         <v>999</v>
       </c>
       <c r="N34" t="s">
-        <v>196</v>
-      </c>
-      <c r="O34" t="s">
+        <v>143</v>
+      </c>
+      <c r="O34">
+        <v>4</v>
+      </c>
+      <c r="P34">
+        <v>2100</v>
+      </c>
+      <c r="Q34">
+        <v>128</v>
+      </c>
+      <c r="R34">
+        <v>320</v>
+      </c>
+      <c r="S34">
+        <v>800</v>
+      </c>
+      <c r="T34" t="s">
         <v>25</v>
       </c>
-      <c r="P34">
-        <v>20</v>
-      </c>
-      <c r="Q34">
-        <v>800</v>
-      </c>
-      <c r="R34" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>197</v>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>4657009497505</v>
       </c>
       <c r="B35" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="F35" t="s">
-        <v>200</v>
-      </c>
-      <c r="G35" t="s">
-        <v>80</v>
+        <v>146</v>
+      </c>
+      <c r="G35">
+        <v>600</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3059,39 +3050,45 @@
         <v>1999</v>
       </c>
       <c r="N35" t="s">
-        <v>180</v>
-      </c>
-      <c r="O35" t="s">
-        <v>76</v>
+        <v>131</v>
+      </c>
+      <c r="O35">
+        <v>4</v>
       </c>
       <c r="P35">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="Q35">
+        <v>16</v>
+      </c>
+      <c r="R35">
+        <v>40</v>
+      </c>
+      <c r="S35">
         <v>100</v>
       </c>
-      <c r="R35" t="s">
-        <v>32</v>
+      <c r="T35" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>201</v>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>2853659988987</v>
       </c>
       <c r="B36" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="C36" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="F36" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3109,42 +3106,48 @@
         <v>2499</v>
       </c>
       <c r="N36" t="s">
-        <v>180</v>
-      </c>
-      <c r="O36" t="s">
-        <v>76</v>
+        <v>131</v>
+      </c>
+      <c r="O36">
+        <v>4</v>
       </c>
       <c r="P36">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="Q36">
+        <v>40</v>
+      </c>
+      <c r="R36">
+        <v>100</v>
+      </c>
+      <c r="S36">
         <v>250</v>
       </c>
-      <c r="R36" t="s">
-        <v>26</v>
+      <c r="T36" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>204</v>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>2928949171775</v>
       </c>
       <c r="B37" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>206</v>
+        <v>150</v>
       </c>
       <c r="F37" t="s">
-        <v>207</v>
-      </c>
-      <c r="G37" t="s">
-        <v>161</v>
+        <v>151</v>
+      </c>
+      <c r="G37">
+        <v>4000</v>
       </c>
       <c r="H37">
         <v>4</v>
@@ -3158,46 +3161,52 @@
       <c r="K37">
         <v>9999</v>
       </c>
-      <c r="L37" t="s">
-        <v>23</v>
+      <c r="L37">
+        <v>10</v>
       </c>
       <c r="M37">
         <v>8999</v>
       </c>
       <c r="N37" t="s">
-        <v>208</v>
-      </c>
-      <c r="O37" t="s">
-        <v>40</v>
+        <v>152</v>
+      </c>
+      <c r="O37">
+        <v>2</v>
       </c>
       <c r="P37">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="Q37">
+        <v>6.3999999999999986</v>
+      </c>
+      <c r="R37">
+        <v>16</v>
+      </c>
+      <c r="S37">
         <v>80</v>
       </c>
-      <c r="R37" t="s">
-        <v>41</v>
+      <c r="T37" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>209</v>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>7496733422534</v>
       </c>
       <c r="B38" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="C38" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="D38">
         <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="F38" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="H38">
         <v>4</v>
@@ -3215,42 +3224,48 @@
         <v>3499</v>
       </c>
       <c r="N38" t="s">
-        <v>213</v>
-      </c>
-      <c r="O38" t="s">
-        <v>101</v>
+        <v>156</v>
+      </c>
+      <c r="O38">
+        <v>5</v>
       </c>
       <c r="P38">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="Q38">
+        <v>40</v>
+      </c>
+      <c r="R38">
+        <v>100</v>
+      </c>
+      <c r="S38">
         <v>200</v>
       </c>
-      <c r="R38" t="s">
-        <v>32</v>
+      <c r="T38" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>214</v>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>7250030042290</v>
       </c>
       <c r="B39" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>216</v>
+        <v>158</v>
       </c>
       <c r="F39" t="s">
-        <v>217</v>
-      </c>
-      <c r="G39" t="s">
-        <v>218</v>
+        <v>159</v>
+      </c>
+      <c r="G39">
+        <v>3000</v>
       </c>
       <c r="H39">
         <v>4</v>
@@ -3268,39 +3283,45 @@
         <v>3999</v>
       </c>
       <c r="N39" t="s">
-        <v>219</v>
-      </c>
-      <c r="O39" t="s">
-        <v>25</v>
+        <v>160</v>
+      </c>
+      <c r="O39">
+        <v>3</v>
       </c>
       <c r="P39">
-        <v>8</v>
+        <v>400</v>
       </c>
       <c r="Q39">
+        <v>18</v>
+      </c>
+      <c r="R39">
+        <v>45</v>
+      </c>
+      <c r="S39">
         <v>150</v>
       </c>
-      <c r="R39" t="s">
-        <v>32</v>
+      <c r="T39" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>220</v>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>8635315128593</v>
       </c>
       <c r="B40" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>222</v>
+        <v>162</v>
       </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -3318,42 +3339,48 @@
         <v>2499</v>
       </c>
       <c r="N40" t="s">
-        <v>219</v>
-      </c>
-      <c r="O40" t="s">
-        <v>25</v>
+        <v>160</v>
+      </c>
+      <c r="O40">
+        <v>3</v>
       </c>
       <c r="P40">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="Q40">
+        <v>30</v>
+      </c>
+      <c r="R40">
+        <v>75</v>
+      </c>
+      <c r="S40">
         <v>250</v>
       </c>
-      <c r="R40" t="s">
-        <v>32</v>
+      <c r="T40" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>223</v>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>1991831479117</v>
       </c>
       <c r="B41" t="s">
-        <v>224</v>
+        <v>163</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="F41" t="s">
-        <v>226</v>
-      </c>
-      <c r="G41" t="s">
-        <v>155</v>
+        <v>165</v>
+      </c>
+      <c r="G41">
+        <v>2500</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -3367,46 +3394,52 @@
       <c r="K41">
         <v>8999</v>
       </c>
-      <c r="L41" t="s">
-        <v>65</v>
+      <c r="L41">
+        <v>20</v>
       </c>
       <c r="M41">
         <v>7199</v>
       </c>
       <c r="N41" t="s">
-        <v>227</v>
-      </c>
-      <c r="O41" t="s">
-        <v>40</v>
+        <v>166</v>
+      </c>
+      <c r="O41">
+        <v>2</v>
       </c>
       <c r="P41">
-        <v>8</v>
+        <v>400</v>
       </c>
       <c r="Q41">
+        <v>12</v>
+      </c>
+      <c r="R41">
+        <v>30</v>
+      </c>
+      <c r="S41">
         <v>150</v>
       </c>
-      <c r="R41" t="s">
-        <v>26</v>
+      <c r="T41" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>228</v>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>6983968005861</v>
       </c>
       <c r="B42" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="C42" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="F42" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -3424,39 +3457,45 @@
         <v>1799</v>
       </c>
       <c r="N42" t="s">
-        <v>227</v>
-      </c>
-      <c r="O42" t="s">
-        <v>40</v>
+        <v>166</v>
+      </c>
+      <c r="O42">
+        <v>2</v>
       </c>
       <c r="P42">
-        <v>15</v>
+        <v>400</v>
       </c>
       <c r="Q42">
+        <v>12</v>
+      </c>
+      <c r="R42">
+        <v>30</v>
+      </c>
+      <c r="S42">
         <v>150</v>
       </c>
-      <c r="R42" t="s">
-        <v>32</v>
+      <c r="T42" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>232</v>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>8582231850503</v>
       </c>
       <c r="B43" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="F43" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -3474,42 +3513,48 @@
         <v>999</v>
       </c>
       <c r="N43" t="s">
-        <v>219</v>
-      </c>
-      <c r="O43" t="s">
+        <v>160</v>
+      </c>
+      <c r="O43">
+        <v>3</v>
+      </c>
+      <c r="P43">
+        <v>1000</v>
+      </c>
+      <c r="Q43">
+        <v>48</v>
+      </c>
+      <c r="R43">
+        <v>120</v>
+      </c>
+      <c r="S43">
+        <v>400</v>
+      </c>
+      <c r="T43" t="s">
         <v>25</v>
       </c>
-      <c r="P43">
-        <v>20</v>
-      </c>
-      <c r="Q43">
-        <v>400</v>
-      </c>
-      <c r="R43" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>235</v>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>1140002674293</v>
       </c>
       <c r="B44" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c r="F44" t="s">
-        <v>238</v>
-      </c>
-      <c r="G44" t="s">
-        <v>64</v>
+        <v>174</v>
+      </c>
+      <c r="G44">
+        <v>500</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -3527,39 +3572,45 @@
         <v>1499</v>
       </c>
       <c r="N44" t="s">
-        <v>219</v>
-      </c>
-      <c r="O44" t="s">
-        <v>25</v>
+        <v>160</v>
+      </c>
+      <c r="O44">
+        <v>3</v>
       </c>
       <c r="P44">
-        <v>15</v>
+        <v>800</v>
       </c>
       <c r="Q44">
+        <v>36</v>
+      </c>
+      <c r="R44">
+        <v>90</v>
+      </c>
+      <c r="S44">
         <v>300</v>
       </c>
-      <c r="R44" t="s">
-        <v>32</v>
+      <c r="T44" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>239</v>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>6173200653703</v>
       </c>
       <c r="B45" t="s">
-        <v>240</v>
+        <v>175</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="F45" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -3577,39 +3628,45 @@
         <v>1799</v>
       </c>
       <c r="N45" t="s">
-        <v>219</v>
-      </c>
-      <c r="O45" t="s">
+        <v>160</v>
+      </c>
+      <c r="O45">
+        <v>3</v>
+      </c>
+      <c r="P45">
+        <v>1600</v>
+      </c>
+      <c r="Q45">
+        <v>72</v>
+      </c>
+      <c r="R45">
+        <v>180</v>
+      </c>
+      <c r="S45">
+        <v>600</v>
+      </c>
+      <c r="T45" t="s">
         <v>25</v>
       </c>
-      <c r="P45">
-        <v>20</v>
-      </c>
-      <c r="Q45">
-        <v>600</v>
-      </c>
-      <c r="R45" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>242</v>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>1994319705304</v>
       </c>
       <c r="B46" t="s">
-        <v>243</v>
+        <v>177</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>244</v>
+        <v>178</v>
       </c>
       <c r="F46" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -3627,39 +3684,45 @@
         <v>1199</v>
       </c>
       <c r="N46" t="s">
-        <v>219</v>
-      </c>
-      <c r="O46" t="s">
+        <v>160</v>
+      </c>
+      <c r="O46">
+        <v>3</v>
+      </c>
+      <c r="P46">
+        <v>600</v>
+      </c>
+      <c r="Q46">
+        <v>30</v>
+      </c>
+      <c r="R46">
+        <v>75</v>
+      </c>
+      <c r="S46">
+        <v>250</v>
+      </c>
+      <c r="T46" t="s">
         <v>25</v>
       </c>
-      <c r="P46">
-        <v>15</v>
-      </c>
-      <c r="Q46">
-        <v>250</v>
-      </c>
-      <c r="R46" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>246</v>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>8469701745293</v>
       </c>
       <c r="B47" t="s">
-        <v>247</v>
+        <v>180</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="F47" t="s">
-        <v>249</v>
+        <v>182</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -3677,39 +3740,45 @@
         <v>999</v>
       </c>
       <c r="N47" t="s">
-        <v>219</v>
-      </c>
-      <c r="O47" t="s">
-        <v>25</v>
+        <v>160</v>
+      </c>
+      <c r="O47">
+        <v>3</v>
       </c>
       <c r="P47">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="Q47">
+        <v>12</v>
+      </c>
+      <c r="R47">
+        <v>30</v>
+      </c>
+      <c r="S47">
         <v>100</v>
       </c>
-      <c r="R47" t="s">
-        <v>32</v>
+      <c r="T47" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>250</v>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>4347668189572</v>
       </c>
       <c r="B48" t="s">
-        <v>251</v>
+        <v>183</v>
       </c>
       <c r="C48" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="D48">
         <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="F48" t="s">
-        <v>253</v>
+        <v>185</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -3727,42 +3796,48 @@
         <v>1999</v>
       </c>
       <c r="N48" t="s">
-        <v>227</v>
-      </c>
-      <c r="O48" t="s">
+        <v>166</v>
+      </c>
+      <c r="O48">
+        <v>2</v>
+      </c>
+      <c r="P48">
+        <v>500</v>
+      </c>
+      <c r="Q48">
+        <v>16</v>
+      </c>
+      <c r="R48">
         <v>40</v>
       </c>
-      <c r="P48">
-        <v>10</v>
-      </c>
-      <c r="Q48">
+      <c r="S48">
         <v>200</v>
       </c>
-      <c r="R48" t="s">
-        <v>26</v>
+      <c r="T48" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>254</v>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>7011258015397</v>
       </c>
       <c r="B49" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>256</v>
+        <v>187</v>
       </c>
       <c r="F49" t="s">
-        <v>257</v>
-      </c>
-      <c r="G49" t="s">
-        <v>57</v>
+        <v>188</v>
+      </c>
+      <c r="G49">
+        <v>800</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -3780,42 +3855,48 @@
         <v>2499</v>
       </c>
       <c r="N49" t="s">
-        <v>219</v>
-      </c>
-      <c r="O49" t="s">
-        <v>25</v>
+        <v>160</v>
+      </c>
+      <c r="O49">
+        <v>3</v>
       </c>
       <c r="P49">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="Q49">
+        <v>30</v>
+      </c>
+      <c r="R49">
+        <v>75</v>
+      </c>
+      <c r="S49">
         <v>250</v>
       </c>
-      <c r="R49" t="s">
-        <v>32</v>
+      <c r="T49" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>258</v>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>5836344443744</v>
       </c>
       <c r="B50" t="s">
-        <v>259</v>
+        <v>189</v>
       </c>
       <c r="C50" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="D50">
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="F50" t="s">
-        <v>261</v>
-      </c>
-      <c r="G50" t="s">
-        <v>262</v>
+        <v>191</v>
+      </c>
+      <c r="G50">
+        <v>250</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -3833,42 +3914,48 @@
         <v>1699</v>
       </c>
       <c r="N50" t="s">
-        <v>263</v>
-      </c>
-      <c r="O50" t="s">
-        <v>25</v>
+        <v>192</v>
+      </c>
+      <c r="O50">
+        <v>3</v>
       </c>
       <c r="P50">
-        <v>15</v>
+        <v>2100</v>
       </c>
       <c r="Q50">
+        <v>96</v>
+      </c>
+      <c r="R50">
+        <v>240</v>
+      </c>
+      <c r="S50">
         <v>800</v>
       </c>
-      <c r="R50" t="s">
-        <v>32</v>
+      <c r="T50" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>264</v>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>4574688715507</v>
       </c>
       <c r="B51" t="s">
-        <v>265</v>
+        <v>193</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>266</v>
+        <v>194</v>
       </c>
       <c r="F51" t="s">
-        <v>267</v>
-      </c>
-      <c r="G51" t="s">
-        <v>268</v>
+        <v>195</v>
+      </c>
+      <c r="G51">
+        <v>5000</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -3883,29 +3970,36 @@
         <v>7199</v>
       </c>
       <c r="L51">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="M51">
         <v>6479</v>
       </c>
       <c r="N51" t="s">
-        <v>263</v>
-      </c>
-      <c r="O51" t="s">
+        <v>192</v>
+      </c>
+      <c r="O51">
+        <v>3</v>
+      </c>
+      <c r="P51">
+        <v>100</v>
+      </c>
+      <c r="Q51">
+        <v>6</v>
+      </c>
+      <c r="R51">
+        <v>15</v>
+      </c>
+      <c r="S51">
+        <v>50</v>
+      </c>
+      <c r="T51" t="s">
         <v>25</v>
-      </c>
-      <c r="P51">
-        <v>8</v>
-      </c>
-      <c r="Q51">
-        <v>50</v>
-      </c>
-      <c r="R51" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3913,7 +4007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AY51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
       <selection pane="topRight" activeCell="AN38" sqref="AN38"/>
@@ -3975,163 +4069,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="P1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="R1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="W1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="V1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="Y1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AP1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AD1" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>265</v>
+      <c r="AQ1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -4286,7 +4380,7 @@
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -4441,7 +4535,7 @@
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>0.2</v>
@@ -4596,7 +4690,7 @@
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>0.4</v>
@@ -4751,7 +4845,7 @@
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.7</v>
@@ -4906,7 +5000,7 @@
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0.2</v>
@@ -5061,7 +5155,7 @@
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B8">
         <v>0.5</v>
@@ -5216,7 +5310,7 @@
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>0.4</v>
@@ -5371,7 +5465,7 @@
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5526,7 +5620,7 @@
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -5681,7 +5775,7 @@
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -5836,7 +5930,7 @@
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -5991,7 +6085,7 @@
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -6146,7 +6240,7 @@
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B15">
         <v>0.7</v>
@@ -6301,7 +6395,7 @@
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -6456,7 +6550,7 @@
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -6611,7 +6705,7 @@
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -6766,7 +6860,7 @@
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -6921,7 +7015,7 @@
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -7076,7 +7170,7 @@
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -7231,7 +7325,7 @@
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -7386,7 +7480,7 @@
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -7541,7 +7635,7 @@
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -7696,7 +7790,7 @@
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -7851,7 +7945,7 @@
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -8006,7 +8100,7 @@
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -8161,7 +8255,7 @@
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -8316,7 +8410,7 @@
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -8471,7 +8565,7 @@
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -8626,7 +8720,7 @@
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -8781,7 +8875,7 @@
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -8936,7 +9030,7 @@
     </row>
     <row r="33" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="B33">
         <v>0.6</v>
@@ -9091,7 +9185,7 @@
     </row>
     <row r="34" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -9246,7 +9340,7 @@
     </row>
     <row r="35" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -9401,7 +9495,7 @@
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="B36">
         <v>0.1</v>
@@ -9556,7 +9650,7 @@
     </row>
     <row r="37" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
       <c r="B37">
         <v>0.2</v>
@@ -9711,7 +9805,7 @@
     </row>
     <row r="38" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -9866,7 +9960,7 @@
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -10021,7 +10115,7 @@
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -10176,7 +10270,7 @@
     </row>
     <row r="41" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>224</v>
+        <v>163</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -10331,7 +10425,7 @@
     </row>
     <row r="42" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -10486,7 +10580,7 @@
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -10641,7 +10735,7 @@
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -10796,7 +10890,7 @@
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>240</v>
+        <v>175</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -10951,7 +11045,7 @@
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>243</v>
+        <v>177</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -11106,7 +11200,7 @@
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>247</v>
+        <v>180</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -11261,7 +11355,7 @@
     </row>
     <row r="48" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>251</v>
+        <v>183</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -11416,7 +11510,7 @@
     </row>
     <row r="49" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -11571,7 +11665,7 @@
     </row>
     <row r="50" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>259</v>
+        <v>189</v>
       </c>
       <c r="B50">
         <v>0.1</v>
@@ -11726,7 +11820,7 @@
     </row>
     <row r="51" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>265</v>
+        <v>193</v>
       </c>
       <c r="B51">
         <v>0</v>

--- a/warehouse_manager/Database/Items.xlsx
+++ b/warehouse_manager/Database/Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\Warehouse\warehouse_manager\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBB09C4-9837-4F2C-8941-39A75CBB730F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA284BE-6CFB-41E2-9DD5-071F98524776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,25 @@
     <sheet name="Items" sheetId="1" r:id="rId1"/>
     <sheet name="Relations" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="154">
   <si>
     <t>Sn</t>
   </si>
@@ -38,580 +51,451 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Dimensions</t>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Lead Time</t>
+  </si>
+  <si>
+    <t>Min Order Quantity</t>
+  </si>
+  <si>
+    <t>Safety Stock</t>
+  </si>
+  <si>
+    <t>Reorder Point</t>
+  </si>
+  <si>
+    <t>Demand Average</t>
+  </si>
+  <si>
+    <t>Demand Variability</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Price Buy</t>
+  </si>
+  <si>
+    <t>Price Sell</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Price Sell Net</t>
+  </si>
+  <si>
+    <t>AA Batteries</t>
+  </si>
+  <si>
+    <t>Pack</t>
+  </si>
+  <si>
+    <t>Standard AA size</t>
+  </si>
+  <si>
+    <t>Supplier A</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>AAA Batteries</t>
+  </si>
+  <si>
+    <t>Standard AAA size</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>HDMI Cable</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>6 feet length</t>
+  </si>
+  <si>
+    <t>Supplier B</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>USB Flash Drive</t>
+  </si>
+  <si>
+    <t>16GB capacity</t>
+  </si>
+  <si>
+    <t>Wireless Mouse</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Optical mouse</t>
+  </si>
+  <si>
+    <t>Supplier C</t>
+  </si>
+  <si>
+    <t>Laptop Backpack</t>
+  </si>
+  <si>
+    <t>Fits up to 15"</t>
+  </si>
+  <si>
+    <t>Supplier D</t>
+  </si>
+  <si>
+    <t>Bluetooth Speaker</t>
+  </si>
+  <si>
+    <t>Portable speaker</t>
+  </si>
+  <si>
+    <t>Wireless Headphones</t>
+  </si>
+  <si>
+    <t>Over-ear headphones</t>
+  </si>
+  <si>
+    <t>Soccer Ball</t>
+  </si>
+  <si>
+    <t>Official size and weight</t>
+  </si>
+  <si>
+    <t>Supplier H</t>
+  </si>
+  <si>
+    <t>Basketball</t>
+  </si>
+  <si>
+    <t>Tennis Racket</t>
+  </si>
+  <si>
+    <t>Lightweight racket</t>
+  </si>
+  <si>
+    <t>Supplier I</t>
+  </si>
+  <si>
+    <t>Yoga Mat</t>
+  </si>
+  <si>
+    <t>Non-slip and cushioned</t>
+  </si>
+  <si>
+    <t>Supplier J</t>
+  </si>
+  <si>
+    <t>Resistance Bands</t>
+  </si>
+  <si>
+    <t>Set of 5 different resistance</t>
+  </si>
+  <si>
+    <t>Aromatherapy Diffuser</t>
+  </si>
+  <si>
+    <t>Ultrasonic humidifier</t>
+  </si>
+  <si>
+    <t>Supplier K</t>
+  </si>
+  <si>
+    <t>Essential Oil Set</t>
+  </si>
+  <si>
+    <t>Set of 6 popular scents</t>
+  </si>
+  <si>
+    <t>Yoga Block</t>
+  </si>
+  <si>
+    <t>High-density foam block</t>
+  </si>
+  <si>
+    <t>Meditation Cushion</t>
+  </si>
+  <si>
+    <t>Comfortable and ergonomic</t>
+  </si>
+  <si>
+    <t>Facial Cleanser</t>
+  </si>
+  <si>
+    <t>Bottle</t>
+  </si>
+  <si>
+    <t>Gentle daily face cleanser</t>
+  </si>
+  <si>
+    <t>Supplier L</t>
+  </si>
+  <si>
+    <t>Moisturizing Cream</t>
+  </si>
+  <si>
+    <t>Jar</t>
+  </si>
+  <si>
+    <t>Hydrating face moisturizer</t>
+  </si>
+  <si>
+    <t>Lipstick</t>
+  </si>
+  <si>
+    <t>Long-lasting matte lipstick</t>
+  </si>
+  <si>
+    <t>Supplier M</t>
+  </si>
+  <si>
+    <t>Eyeshadow Palette</t>
+  </si>
+  <si>
+    <t>Palette with multiple shades</t>
+  </si>
+  <si>
+    <t>Mascara</t>
+  </si>
+  <si>
+    <t>Volumizing and lengthening</t>
+  </si>
+  <si>
+    <t>Pillow</t>
+  </si>
+  <si>
+    <t>Hypoallergenic pillow</t>
+  </si>
+  <si>
+    <t>Supplier N</t>
+  </si>
+  <si>
+    <t>Bed Sheets</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>Queen-size bed sheets</t>
+  </si>
+  <si>
+    <t>Supplier O</t>
+  </si>
+  <si>
+    <t>Coffee Maker</t>
+  </si>
+  <si>
+    <t>12-cup programmable coffee maker</t>
+  </si>
+  <si>
+    <t>Supplier P</t>
+  </si>
+  <si>
+    <t>Slow Cooker</t>
+  </si>
+  <si>
+    <t>6-quart programmable slow cooker</t>
+  </si>
+  <si>
+    <t>Steam Iron</t>
+  </si>
+  <si>
+    <t>Powerful steam iron with auto shut-off</t>
+  </si>
+  <si>
+    <t>Supplier Q</t>
+  </si>
+  <si>
+    <t>Vacuum Cleaner</t>
+  </si>
+  <si>
+    <t>Powerful bagless vacuum cleaner</t>
+  </si>
+  <si>
+    <t>Supplier R</t>
+  </si>
+  <si>
+    <t>Bath Towels</t>
+  </si>
+  <si>
+    <t>Soft and absorbent bath towels</t>
+  </si>
+  <si>
+    <t>Knife Set</t>
+  </si>
+  <si>
+    <t>Stainless steel knife set with block</t>
+  </si>
+  <si>
+    <t>Supplier S</t>
+  </si>
+  <si>
+    <t>Cookware Set</t>
+  </si>
+  <si>
+    <t>Non-stick cookware set</t>
+  </si>
+  <si>
+    <t>Supplier T</t>
+  </si>
+  <si>
+    <t>Wall Clock</t>
+  </si>
+  <si>
+    <t>Modern design wall clock</t>
+  </si>
+  <si>
+    <t>Supplier U</t>
+  </si>
+  <si>
+    <t>Coffee Mug</t>
+  </si>
+  <si>
+    <t>Ceramic coffee mug</t>
+  </si>
+  <si>
+    <t>Supplier V</t>
+  </si>
+  <si>
+    <t>Cutting Board</t>
+  </si>
+  <si>
+    <t>Bamboo cutting board</t>
+  </si>
+  <si>
+    <t>Mixing Bowl Set</t>
+  </si>
+  <si>
+    <t>Nesting mixing bowls</t>
+  </si>
+  <si>
+    <t>Blender</t>
+  </si>
+  <si>
+    <t>High-speed blender with multiple settings</t>
+  </si>
+  <si>
+    <t>Supplier W</t>
+  </si>
+  <si>
+    <t>Food Storage Containers</t>
+  </si>
+  <si>
+    <t>Plastic food storage containers</t>
+  </si>
+  <si>
+    <t>Supplier X</t>
+  </si>
+  <si>
+    <t>Toolbox</t>
+  </si>
+  <si>
+    <t>Heavy-duty toolbox with multiple compartments</t>
+  </si>
+  <si>
+    <t>Supplier Y</t>
+  </si>
+  <si>
+    <t>Screwdriver Set</t>
+  </si>
+  <si>
+    <t>Set of screwdrivers with various sizes and types</t>
+  </si>
+  <si>
+    <t>Power Drill</t>
+  </si>
+  <si>
+    <t>Cordless power drill with rechargeable battery</t>
+  </si>
+  <si>
+    <t>Supplier Z</t>
+  </si>
+  <si>
+    <t>Paint Roller Kit</t>
+  </si>
+  <si>
+    <t>Paint roller kit with tray and roller covers</t>
+  </si>
+  <si>
+    <t>Measuring Tape</t>
+  </si>
+  <si>
+    <t>Retractable measuring tape</t>
+  </si>
+  <si>
+    <t>Hammer</t>
+  </si>
+  <si>
+    <t>Claw hammer with wooden handle</t>
+  </si>
+  <si>
+    <t>Screw Assortment Kit</t>
+  </si>
+  <si>
+    <t>Assorted screws and nails set</t>
+  </si>
+  <si>
+    <t>Utility Knife</t>
+  </si>
+  <si>
+    <t>Retractable utility knife with extra blades</t>
+  </si>
+  <si>
+    <t>Sanding Block</t>
+  </si>
+  <si>
+    <t>Handheld sanding block for wood and metal</t>
+  </si>
+  <si>
+    <t>Paint Brush Set</t>
+  </si>
+  <si>
+    <t>Assorted paint brushes for different applications</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>24-inch bubble level for accurate measurements</t>
+  </si>
+  <si>
+    <t>LED Bulb</t>
+  </si>
+  <si>
+    <t>Energy-efficient LED bulb</t>
+  </si>
+  <si>
+    <t>Supplier E</t>
+  </si>
+  <si>
+    <t>Floor Lamp</t>
+  </si>
+  <si>
+    <t>Modern standing floor lamp with adjustable height</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Volume</t>
   </si>
   <si>
     <t>Weight</t>
-  </si>
-  <si>
-    <t>Module Type</t>
-  </si>
-  <si>
-    <t>Module Quantity</t>
-  </si>
-  <si>
-    <t>Price Buy</t>
-  </si>
-  <si>
-    <t>Price Sell</t>
-  </si>
-  <si>
-    <t>Discount</t>
-  </si>
-  <si>
-    <t>Price Sell Net</t>
-  </si>
-  <si>
-    <t>Supplier</t>
-  </si>
-  <si>
-    <t>Lead Time</t>
-  </si>
-  <si>
-    <t>Min Order Quantity</t>
-  </si>
-  <si>
-    <t>Safety Stock</t>
-  </si>
-  <si>
-    <t>Reorder Point</t>
-  </si>
-  <si>
-    <t>Demand Average</t>
-  </si>
-  <si>
-    <t>Demand Variability</t>
-  </si>
-  <si>
-    <t>AA Batteries</t>
-  </si>
-  <si>
-    <t>Pack</t>
-  </si>
-  <si>
-    <t>Standard AA size</t>
-  </si>
-  <si>
-    <t>[50, 30, 15]</t>
-  </si>
-  <si>
-    <t>Supplier A</t>
-  </si>
-  <si>
-    <t>Moderate</t>
-  </si>
-  <si>
-    <t>AAA Batteries</t>
-  </si>
-  <si>
-    <t>Standard AAA size</t>
-  </si>
-  <si>
-    <t>[50, 40, 20]</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>HDMI Cable</t>
-  </si>
-  <si>
-    <t>Individual</t>
-  </si>
-  <si>
-    <t>6 feet length</t>
-  </si>
-  <si>
-    <t>[180, 10, 5]</t>
-  </si>
-  <si>
-    <t>Supplier B</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>USB Flash Drive</t>
-  </si>
-  <si>
-    <t>16GB capacity</t>
-  </si>
-  <si>
-    <t>[60, 20, 10]</t>
-  </si>
-  <si>
-    <t>Wireless Mouse</t>
-  </si>
-  <si>
-    <t>Box</t>
-  </si>
-  <si>
-    <t>Optical mouse</t>
-  </si>
-  <si>
-    <t>[120, 80, 50]</t>
-  </si>
-  <si>
-    <t>Supplier C</t>
-  </si>
-  <si>
-    <t>Laptop Backpack</t>
-  </si>
-  <si>
-    <t>Fits up to 15"</t>
-  </si>
-  <si>
-    <t>[400, 300, 150]</t>
-  </si>
-  <si>
-    <t>Supplier D</t>
-  </si>
-  <si>
-    <t>Bluetooth Speaker</t>
-  </si>
-  <si>
-    <t>Portable speaker</t>
-  </si>
-  <si>
-    <t>[150, 100, 80]</t>
-  </si>
-  <si>
-    <t>Wireless Headphones</t>
-  </si>
-  <si>
-    <t>Over-ear headphones</t>
-  </si>
-  <si>
-    <t>[200, 150, 100]</t>
-  </si>
-  <si>
-    <t>Soccer Ball</t>
-  </si>
-  <si>
-    <t>Official size and weight</t>
-  </si>
-  <si>
-    <t>[220, 220, 220]</t>
-  </si>
-  <si>
-    <t>Supplier H</t>
-  </si>
-  <si>
-    <t>Basketball</t>
-  </si>
-  <si>
-    <t>[240, 240, 240]</t>
-  </si>
-  <si>
-    <t>Tennis Racket</t>
-  </si>
-  <si>
-    <t>Lightweight racket</t>
-  </si>
-  <si>
-    <t>[680, 250, 40]</t>
-  </si>
-  <si>
-    <t>Supplier I</t>
-  </si>
-  <si>
-    <t>Yoga Mat</t>
-  </si>
-  <si>
-    <t>Non-slip and cushioned</t>
-  </si>
-  <si>
-    <t>[600, 600, 6]</t>
-  </si>
-  <si>
-    <t>Supplier J</t>
-  </si>
-  <si>
-    <t>Resistance Bands</t>
-  </si>
-  <si>
-    <t>Set of 5 different resistance</t>
-  </si>
-  <si>
-    <t>[200, 150, 50]</t>
-  </si>
-  <si>
-    <t>Aromatherapy Diffuser</t>
-  </si>
-  <si>
-    <t>Ultrasonic humidifier</t>
-  </si>
-  <si>
-    <t>[150, 150, 200]</t>
-  </si>
-  <si>
-    <t>Supplier K</t>
-  </si>
-  <si>
-    <t>Essential Oil Set</t>
-  </si>
-  <si>
-    <t>Set of 6 popular scents</t>
-  </si>
-  <si>
-    <t>[150, 100, 50]</t>
-  </si>
-  <si>
-    <t>Yoga Block</t>
-  </si>
-  <si>
-    <t>High-density foam block</t>
-  </si>
-  <si>
-    <t>[230, 150, 100]</t>
-  </si>
-  <si>
-    <t>Meditation Cushion</t>
-  </si>
-  <si>
-    <t>Comfortable and ergonomic</t>
-  </si>
-  <si>
-    <t>[350, 350, 150]</t>
-  </si>
-  <si>
-    <t>Facial Cleanser</t>
-  </si>
-  <si>
-    <t>Bottle</t>
-  </si>
-  <si>
-    <t>Gentle daily face cleanser</t>
-  </si>
-  <si>
-    <t>[100, 50, 150]</t>
-  </si>
-  <si>
-    <t>Supplier L</t>
-  </si>
-  <si>
-    <t>Moisturizing Cream</t>
-  </si>
-  <si>
-    <t>Jar</t>
-  </si>
-  <si>
-    <t>Hydrating face moisturizer</t>
-  </si>
-  <si>
-    <t>[80, 80, 100]</t>
-  </si>
-  <si>
-    <t>Lipstick</t>
-  </si>
-  <si>
-    <t>Long-lasting matte lipstick</t>
-  </si>
-  <si>
-    <t>[20, 20, 80]</t>
-  </si>
-  <si>
-    <t>Supplier M</t>
-  </si>
-  <si>
-    <t>Eyeshadow Palette</t>
-  </si>
-  <si>
-    <t>Palette with multiple shades</t>
-  </si>
-  <si>
-    <t>[120, 80, 20]</t>
-  </si>
-  <si>
-    <t>Mascara</t>
-  </si>
-  <si>
-    <t>Volumizing and lengthening</t>
-  </si>
-  <si>
-    <t>[30, 30, 150]</t>
-  </si>
-  <si>
-    <t>Pillow</t>
-  </si>
-  <si>
-    <t>Hypoallergenic pillow</t>
-  </si>
-  <si>
-    <t>[300, 200, 100]</t>
-  </si>
-  <si>
-    <t>Supplier N</t>
-  </si>
-  <si>
-    <t>Bed Sheets</t>
-  </si>
-  <si>
-    <t>Set</t>
-  </si>
-  <si>
-    <t>Queen-size bed sheets</t>
-  </si>
-  <si>
-    <t>[200, 180, 50]</t>
-  </si>
-  <si>
-    <t>Supplier O</t>
-  </si>
-  <si>
-    <t>Coffee Maker</t>
-  </si>
-  <si>
-    <t>12-cup programmable coffee maker</t>
-  </si>
-  <si>
-    <t>[300, 200, 400]</t>
-  </si>
-  <si>
-    <t>Supplier P</t>
-  </si>
-  <si>
-    <t>Slow Cooker</t>
-  </si>
-  <si>
-    <t>6-quart programmable slow cooker</t>
-  </si>
-  <si>
-    <t>[350, 300, 250]</t>
-  </si>
-  <si>
-    <t>Steam Iron</t>
-  </si>
-  <si>
-    <t>Powerful steam iron with auto shut-off</t>
-  </si>
-  <si>
-    <t>Supplier Q</t>
-  </si>
-  <si>
-    <t>Vacuum Cleaner</t>
-  </si>
-  <si>
-    <t>Powerful bagless vacuum cleaner</t>
-  </si>
-  <si>
-    <t>[400, 300, 250]</t>
-  </si>
-  <si>
-    <t>Supplier R</t>
-  </si>
-  <si>
-    <t>Bath Towels</t>
-  </si>
-  <si>
-    <t>Soft and absorbent bath towels</t>
-  </si>
-  <si>
-    <t>Knife Set</t>
-  </si>
-  <si>
-    <t>Stainless steel knife set with block</t>
-  </si>
-  <si>
-    <t>[350, 200, 50]</t>
-  </si>
-  <si>
-    <t>Supplier S</t>
-  </si>
-  <si>
-    <t>Cookware Set</t>
-  </si>
-  <si>
-    <t>Non-stick cookware set</t>
-  </si>
-  <si>
-    <t>[600, 400, 200]</t>
-  </si>
-  <si>
-    <t>Supplier T</t>
-  </si>
-  <si>
-    <t>Wall Clock</t>
-  </si>
-  <si>
-    <t>Modern design wall clock</t>
-  </si>
-  <si>
-    <t>[300, 300, 50]</t>
-  </si>
-  <si>
-    <t>Supplier U</t>
-  </si>
-  <si>
-    <t>Coffee Mug</t>
-  </si>
-  <si>
-    <t>Ceramic coffee mug</t>
-  </si>
-  <si>
-    <t>[100, 80, 120]</t>
-  </si>
-  <si>
-    <t>Supplier V</t>
-  </si>
-  <si>
-    <t>Cutting Board</t>
-  </si>
-  <si>
-    <t>Bamboo cutting board</t>
-  </si>
-  <si>
-    <t>[300, 200, 20]</t>
-  </si>
-  <si>
-    <t>Mixing Bowl Set</t>
-  </si>
-  <si>
-    <t>Nesting mixing bowls</t>
-  </si>
-  <si>
-    <t>Blender</t>
-  </si>
-  <si>
-    <t>High-speed blender with multiple settings</t>
-  </si>
-  <si>
-    <t>[200, 200, 400]</t>
-  </si>
-  <si>
-    <t>Supplier W</t>
-  </si>
-  <si>
-    <t>Food Storage Containers</t>
-  </si>
-  <si>
-    <t>Plastic food storage containers</t>
-  </si>
-  <si>
-    <t>[300, 250, 200]</t>
-  </si>
-  <si>
-    <t>Supplier X</t>
-  </si>
-  <si>
-    <t>Toolbox</t>
-  </si>
-  <si>
-    <t>Heavy-duty toolbox with multiple compartments</t>
-  </si>
-  <si>
-    <t>[400, 200, 200]</t>
-  </si>
-  <si>
-    <t>Supplier Y</t>
-  </si>
-  <si>
-    <t>Screwdriver Set</t>
-  </si>
-  <si>
-    <t>Set of screwdrivers with various sizes and types</t>
-  </si>
-  <si>
-    <t>Power Drill</t>
-  </si>
-  <si>
-    <t>Cordless power drill with rechargeable battery</t>
-  </si>
-  <si>
-    <t>[350, 250, 100]</t>
-  </si>
-  <si>
-    <t>Supplier Z</t>
-  </si>
-  <si>
-    <t>Paint Roller Kit</t>
-  </si>
-  <si>
-    <t>Paint roller kit with tray and roller covers</t>
-  </si>
-  <si>
-    <t>[400, 150, 50]</t>
-  </si>
-  <si>
-    <t>Measuring Tape</t>
-  </si>
-  <si>
-    <t>Retractable measuring tape</t>
-  </si>
-  <si>
-    <t>Hammer</t>
-  </si>
-  <si>
-    <t>Claw hammer with wooden handle</t>
-  </si>
-  <si>
-    <t>[300, 100, 50]</t>
-  </si>
-  <si>
-    <t>Screw Assortment Kit</t>
-  </si>
-  <si>
-    <t>Assorted screws and nails set</t>
-  </si>
-  <si>
-    <t>Utility Knife</t>
-  </si>
-  <si>
-    <t>Retractable utility knife with extra blades</t>
-  </si>
-  <si>
-    <t>[200, 50, 20]</t>
-  </si>
-  <si>
-    <t>Sanding Block</t>
-  </si>
-  <si>
-    <t>Handheld sanding block for wood and metal</t>
-  </si>
-  <si>
-    <t>[100, 70, 30]</t>
-  </si>
-  <si>
-    <t>Paint Brush Set</t>
-  </si>
-  <si>
-    <t>Assorted paint brushes for different applications</t>
-  </si>
-  <si>
-    <t>[250, 100, 50]</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>24-inch bubble level for accurate measurements</t>
-  </si>
-  <si>
-    <t>[300, 40, 20]</t>
-  </si>
-  <si>
-    <t>LED Bulb</t>
-  </si>
-  <si>
-    <t>Energy-efficient LED bulb</t>
-  </si>
-  <si>
-    <t>[100, 50, 50]</t>
-  </si>
-  <si>
-    <t>Supplier E</t>
-  </si>
-  <si>
-    <t>Floor Lamp</t>
-  </si>
-  <si>
-    <t>Modern standing floor lamp with adjustable height</t>
-  </si>
-  <si>
-    <t>[500, 300, 300]</t>
-  </si>
-  <si>
-    <t>Product</t>
   </si>
 </sst>
 </file>
@@ -687,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -695,10 +579,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -979,38 +862,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T51"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1055,2951 +919,3153 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>8792296472580</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>8792296472580</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>2300</v>
+      </c>
+      <c r="I2">
+        <v>108</v>
+      </c>
+      <c r="J2">
+        <v>270</v>
+      </c>
+      <c r="K2">
+        <v>900</v>
+      </c>
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>40</v>
-      </c>
-      <c r="J2">
+      <c r="M2">
+        <v>50</v>
+      </c>
+      <c r="N2">
+        <v>30</v>
+      </c>
+      <c r="O2">
+        <v>15</v>
+      </c>
+      <c r="P2">
+        <f>M2*N2*O2/1000</f>
+        <v>22.5</v>
+      </c>
+      <c r="R2">
         <v>250</v>
       </c>
-      <c r="K2">
+      <c r="S2">
         <v>399</v>
       </c>
-      <c r="L2">
+      <c r="T2">
         <v>10</v>
       </c>
-      <c r="M2">
+      <c r="U2">
         <v>359</v>
       </c>
-      <c r="N2" t="s">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>8740012615482</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="O2">
-        <v>3</v>
-      </c>
-      <c r="P2">
-        <v>2300</v>
-      </c>
-      <c r="Q2">
-        <v>108</v>
-      </c>
-      <c r="R2">
-        <v>270</v>
-      </c>
-      <c r="S2">
-        <v>900</v>
-      </c>
-      <c r="T2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>8740012615482</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>1800</v>
+      </c>
+      <c r="I3">
+        <v>84</v>
+      </c>
+      <c r="J3">
+        <v>210</v>
+      </c>
+      <c r="K3">
+        <v>700</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3">
+        <v>50</v>
+      </c>
+      <c r="N3">
+        <v>40</v>
+      </c>
+      <c r="O3">
+        <v>20</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P51" si="0">M3*N3*O3/1000</f>
+        <v>40</v>
+      </c>
+      <c r="R3">
+        <v>300</v>
+      </c>
+      <c r="S3">
+        <v>499</v>
+      </c>
+      <c r="T3">
+        <v>15</v>
+      </c>
+      <c r="U3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>9861207801640</v>
+      </c>
+      <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C4" t="s">
         <v>28</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>25</v>
-      </c>
-      <c r="J3">
-        <v>300</v>
-      </c>
-      <c r="K3">
-        <v>499</v>
-      </c>
-      <c r="L3">
-        <v>15</v>
-      </c>
-      <c r="M3">
-        <v>424</v>
-      </c>
-      <c r="N3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3">
-        <v>3</v>
-      </c>
-      <c r="P3">
-        <v>1800</v>
-      </c>
-      <c r="Q3">
-        <v>84</v>
-      </c>
-      <c r="R3">
-        <v>210</v>
-      </c>
-      <c r="S3">
-        <v>700</v>
-      </c>
-      <c r="T3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>9861207801640</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>500</v>
+      </c>
+      <c r="I4">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>40</v>
+      </c>
+      <c r="K4">
+        <v>200</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4">
+        <v>180</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q4">
+        <v>150</v>
+      </c>
+      <c r="R4">
+        <v>500</v>
+      </c>
+      <c r="S4">
+        <v>999</v>
+      </c>
+      <c r="U4">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>6012791254003</v>
+      </c>
+      <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4">
-        <v>150</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4">
-        <v>500</v>
-      </c>
-      <c r="K4">
-        <v>999</v>
-      </c>
-      <c r="M4">
-        <v>999</v>
-      </c>
-      <c r="N4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4">
-        <v>500</v>
-      </c>
-      <c r="Q4">
-        <v>16</v>
-      </c>
-      <c r="R4">
-        <v>40</v>
-      </c>
-      <c r="S4">
-        <v>200</v>
-      </c>
-      <c r="T4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>6012791254003</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1800</v>
+      </c>
+      <c r="I5">
+        <v>55.999999999999993</v>
+      </c>
+      <c r="J5">
+        <v>140</v>
+      </c>
+      <c r="K5">
+        <v>700</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5">
+        <v>60</v>
+      </c>
+      <c r="N5">
         <v>20</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>50</v>
-      </c>
-      <c r="J5">
+      <c r="O5">
+        <v>10</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Q5">
+        <v>20</v>
+      </c>
+      <c r="R5">
         <v>800</v>
       </c>
-      <c r="K5">
+      <c r="S5">
         <v>1499</v>
       </c>
-      <c r="M5">
+      <c r="U5">
         <v>1499</v>
       </c>
-      <c r="N5" t="s">
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6716502650085</v>
+      </c>
+      <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="O5">
-        <v>2</v>
-      </c>
-      <c r="P5">
-        <v>1800</v>
-      </c>
-      <c r="Q5">
-        <v>55.999999999999993</v>
-      </c>
-      <c r="R5">
-        <v>140</v>
-      </c>
-      <c r="S5">
-        <v>700</v>
-      </c>
-      <c r="T5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>6716502650085</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J6">
+        <v>60</v>
+      </c>
+      <c r="K6">
+        <v>200</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6">
+        <v>120</v>
+      </c>
+      <c r="N6">
+        <v>80</v>
+      </c>
+      <c r="O6">
+        <v>50</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="R6">
         <v>1200</v>
       </c>
-      <c r="K6">
+      <c r="S6">
         <v>1999</v>
       </c>
-      <c r="M6">
+      <c r="U6">
         <v>1999</v>
       </c>
-      <c r="N6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6">
-        <v>3</v>
-      </c>
-      <c r="P6">
-        <v>500</v>
-      </c>
-      <c r="Q6">
-        <v>24</v>
-      </c>
-      <c r="R6">
-        <v>60</v>
-      </c>
-      <c r="S6">
-        <v>200</v>
-      </c>
-      <c r="T6" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>2043753267054</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>400</v>
+      </c>
+      <c r="I7">
+        <v>42</v>
+      </c>
+      <c r="J7">
+        <v>105</v>
+      </c>
+      <c r="K7">
+        <v>150</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7">
+        <v>400</v>
+      </c>
+      <c r="N7">
+        <v>300</v>
+      </c>
+      <c r="O7">
+        <v>150</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+      <c r="Q7">
         <v>800</v>
       </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="J7">
+      <c r="R7">
         <v>2500</v>
       </c>
-      <c r="K7">
+      <c r="S7">
         <v>3999</v>
       </c>
-      <c r="M7">
+      <c r="U7">
         <v>3999</v>
       </c>
-      <c r="N7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7">
-        <v>7</v>
-      </c>
-      <c r="P7">
-        <v>400</v>
-      </c>
-      <c r="Q7">
-        <v>42</v>
-      </c>
-      <c r="R7">
-        <v>105</v>
-      </c>
-      <c r="S7">
-        <v>150</v>
-      </c>
-      <c r="T7" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>6168021634974</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>800</v>
+      </c>
+      <c r="I8">
+        <v>36</v>
+      </c>
+      <c r="J8">
+        <v>90</v>
+      </c>
+      <c r="K8">
+        <v>300</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8">
+        <v>150</v>
+      </c>
+      <c r="N8">
+        <v>100</v>
+      </c>
+      <c r="O8">
+        <v>80</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="Q8">
         <v>500</v>
       </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8">
+      <c r="R8">
         <v>3000</v>
       </c>
-      <c r="K8">
+      <c r="S8">
         <v>4999</v>
       </c>
-      <c r="L8">
+      <c r="T8">
         <v>20</v>
       </c>
-      <c r="M8">
+      <c r="U8">
         <v>3999</v>
       </c>
-      <c r="N8" t="s">
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7688077832904</v>
+      </c>
+      <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="O8">
-        <v>3</v>
-      </c>
-      <c r="P8">
-        <v>800</v>
-      </c>
-      <c r="Q8">
-        <v>36</v>
-      </c>
-      <c r="R8">
-        <v>90</v>
-      </c>
-      <c r="S8">
-        <v>300</v>
-      </c>
-      <c r="T8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>7688077832904</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>37</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="J9">
+        <v>120</v>
+      </c>
+      <c r="K9">
+        <v>400</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9">
+        <v>200</v>
+      </c>
+      <c r="N9">
+        <v>150</v>
+      </c>
+      <c r="O9">
+        <v>100</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="R9">
         <v>5000</v>
       </c>
-      <c r="K9">
+      <c r="S9">
         <v>7999</v>
       </c>
-      <c r="L9">
+      <c r="T9">
         <v>10</v>
       </c>
-      <c r="M9">
+      <c r="U9">
         <v>7199</v>
       </c>
-      <c r="N9" t="s">
-        <v>43</v>
-      </c>
-      <c r="O9">
-        <v>3</v>
-      </c>
-      <c r="P9">
-        <v>1000</v>
-      </c>
-      <c r="Q9">
-        <v>48</v>
-      </c>
-      <c r="R9">
-        <v>120</v>
-      </c>
-      <c r="S9">
-        <v>400</v>
-      </c>
-      <c r="T9" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>8605951231424</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>800</v>
+      </c>
+      <c r="I10">
+        <v>48</v>
+      </c>
+      <c r="J10">
+        <v>120</v>
+      </c>
+      <c r="K10">
+        <v>300</v>
+      </c>
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10">
+        <v>220</v>
+      </c>
+      <c r="N10">
+        <v>220</v>
+      </c>
+      <c r="O10">
+        <v>220</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>10648</v>
+      </c>
+      <c r="Q10">
         <v>400</v>
       </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <v>20</v>
-      </c>
-      <c r="J10">
+      <c r="R10">
         <v>1500</v>
       </c>
-      <c r="K10">
+      <c r="S10">
         <v>2499</v>
       </c>
-      <c r="M10">
+      <c r="U10">
         <v>2499</v>
       </c>
-      <c r="N10" t="s">
-        <v>57</v>
-      </c>
-      <c r="O10">
-        <v>4</v>
-      </c>
-      <c r="P10">
-        <v>800</v>
-      </c>
-      <c r="Q10">
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1163238761072</v>
+      </c>
+      <c r="B11" t="s">
         <v>48</v>
       </c>
-      <c r="R10">
-        <v>120</v>
-      </c>
-      <c r="S10">
-        <v>300</v>
-      </c>
-      <c r="T10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>1163238761072</v>
-      </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>500</v>
+      </c>
+      <c r="I11">
+        <v>32</v>
+      </c>
+      <c r="J11">
+        <v>80</v>
+      </c>
+      <c r="K11">
+        <v>200</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11">
+        <v>240</v>
+      </c>
+      <c r="N11">
+        <v>240</v>
+      </c>
+      <c r="O11">
+        <v>240</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>13824</v>
+      </c>
+      <c r="Q11">
         <v>600</v>
       </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="I11">
-        <v>15</v>
-      </c>
-      <c r="J11">
+      <c r="R11">
         <v>1200</v>
       </c>
-      <c r="K11">
+      <c r="S11">
         <v>1999</v>
       </c>
-      <c r="M11">
+      <c r="U11">
         <v>1999</v>
       </c>
-      <c r="N11" t="s">
-        <v>57</v>
-      </c>
-      <c r="O11">
-        <v>4</v>
-      </c>
-      <c r="P11">
-        <v>500</v>
-      </c>
-      <c r="Q11">
-        <v>32</v>
-      </c>
-      <c r="R11">
-        <v>80</v>
-      </c>
-      <c r="S11">
-        <v>200</v>
-      </c>
-      <c r="T11" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>6316892945078</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>51</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J12">
+        <v>20</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12">
+        <v>680</v>
+      </c>
+      <c r="N12">
+        <v>250</v>
+      </c>
+      <c r="O12">
+        <v>40</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>6800</v>
+      </c>
+      <c r="R12">
         <v>2500</v>
       </c>
-      <c r="K12">
+      <c r="S12">
         <v>3999</v>
       </c>
-      <c r="M12">
+      <c r="U12">
         <v>3999</v>
       </c>
-      <c r="N12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O12">
-        <v>2</v>
-      </c>
-      <c r="P12">
-        <v>300</v>
-      </c>
-      <c r="Q12">
-        <v>8</v>
-      </c>
-      <c r="R12">
-        <v>20</v>
-      </c>
-      <c r="S12">
-        <v>100</v>
-      </c>
-      <c r="T12" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>1865097032972</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>800</v>
+      </c>
+      <c r="I13">
+        <v>36</v>
+      </c>
+      <c r="J13">
+        <v>90</v>
+      </c>
+      <c r="K13">
+        <v>300</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13">
+        <v>600</v>
+      </c>
+      <c r="N13">
+        <v>600</v>
+      </c>
+      <c r="O13">
+        <v>6</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>2160</v>
+      </c>
+      <c r="Q13">
         <v>1200</v>
       </c>
-      <c r="H13">
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <v>5</v>
-      </c>
-      <c r="J13">
+      <c r="R13">
         <v>2000</v>
       </c>
-      <c r="K13">
+      <c r="S13">
         <v>3499</v>
       </c>
-      <c r="L13">
+      <c r="T13">
         <v>10</v>
       </c>
-      <c r="M13">
+      <c r="U13">
         <v>3149</v>
       </c>
-      <c r="N13" t="s">
-        <v>67</v>
-      </c>
-      <c r="O13">
-        <v>3</v>
-      </c>
-      <c r="P13">
-        <v>800</v>
-      </c>
-      <c r="Q13">
-        <v>36</v>
-      </c>
-      <c r="R13">
-        <v>90</v>
-      </c>
-      <c r="S13">
-        <v>300</v>
-      </c>
-      <c r="T13" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>9418553859922</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>54</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>1300</v>
       </c>
       <c r="I14">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="J14">
+        <v>150</v>
+      </c>
+      <c r="K14">
+        <v>500</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14">
+        <v>200</v>
+      </c>
+      <c r="N14">
+        <v>150</v>
+      </c>
+      <c r="O14">
+        <v>50</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="K14">
+      <c r="R14">
+        <v>1500</v>
+      </c>
+      <c r="S14">
         <v>2499</v>
       </c>
-      <c r="M14">
+      <c r="U14">
         <v>2499</v>
       </c>
-      <c r="N14" t="s">
-        <v>67</v>
-      </c>
-      <c r="O14">
-        <v>3</v>
-      </c>
-      <c r="P14">
-        <v>1300</v>
-      </c>
-      <c r="Q14">
-        <v>60</v>
-      </c>
-      <c r="R14">
-        <v>150</v>
-      </c>
-      <c r="S14">
-        <v>500</v>
-      </c>
-      <c r="T14" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>3225967840242</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>1600</v>
+      </c>
+      <c r="I15">
+        <v>120</v>
+      </c>
+      <c r="J15">
+        <v>300</v>
+      </c>
+      <c r="K15">
+        <v>600</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15">
+        <v>150</v>
+      </c>
+      <c r="N15">
+        <v>150</v>
+      </c>
+      <c r="O15">
+        <v>200</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>4500</v>
+      </c>
+      <c r="Q15">
         <v>500</v>
       </c>
-      <c r="H15">
-        <v>4</v>
-      </c>
-      <c r="I15">
-        <v>12</v>
-      </c>
-      <c r="J15">
+      <c r="R15">
         <v>2000</v>
       </c>
-      <c r="K15">
+      <c r="S15">
         <v>3499</v>
       </c>
-      <c r="L15">
+      <c r="T15">
         <v>10</v>
       </c>
-      <c r="M15">
+      <c r="U15">
         <v>3149</v>
       </c>
-      <c r="N15" t="s">
-        <v>74</v>
-      </c>
-      <c r="O15">
-        <v>5</v>
-      </c>
-      <c r="P15">
-        <v>1600</v>
-      </c>
-      <c r="Q15">
-        <v>120</v>
-      </c>
-      <c r="R15">
-        <v>300</v>
-      </c>
-      <c r="S15">
-        <v>600</v>
-      </c>
-      <c r="T15" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>3675625841261</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>59</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>800</v>
       </c>
       <c r="I16">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="J16">
+        <v>150</v>
+      </c>
+      <c r="K16">
+        <v>300</v>
+      </c>
+      <c r="L16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16">
+        <v>150</v>
+      </c>
+      <c r="N16">
+        <v>100</v>
+      </c>
+      <c r="O16">
+        <v>50</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="R16">
         <v>3000</v>
       </c>
-      <c r="K16">
+      <c r="S16">
         <v>4999</v>
       </c>
-      <c r="L16">
+      <c r="T16">
         <v>15</v>
       </c>
-      <c r="M16">
+      <c r="U16">
         <v>4249</v>
       </c>
-      <c r="N16" t="s">
-        <v>74</v>
-      </c>
-      <c r="O16">
-        <v>5</v>
-      </c>
-      <c r="P16">
-        <v>800</v>
-      </c>
-      <c r="Q16">
-        <v>60</v>
-      </c>
-      <c r="R16">
-        <v>150</v>
-      </c>
-      <c r="S16">
-        <v>300</v>
-      </c>
-      <c r="T16" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>8710073997389</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17">
+        <v>2.4</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>20</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17">
+        <v>230</v>
+      </c>
+      <c r="N17">
+        <v>150</v>
+      </c>
+      <c r="O17">
+        <v>100</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>3450</v>
+      </c>
+      <c r="Q17">
         <v>200</v>
       </c>
-      <c r="H17">
-        <v>9</v>
-      </c>
-      <c r="I17">
-        <v>9</v>
-      </c>
-      <c r="J17">
+      <c r="R17">
         <v>800</v>
       </c>
-      <c r="K17">
+      <c r="S17">
         <v>1499</v>
       </c>
-      <c r="M17">
+      <c r="U17">
         <v>1499</v>
       </c>
-      <c r="N17" t="s">
-        <v>67</v>
-      </c>
-      <c r="O17">
-        <v>3</v>
-      </c>
-      <c r="P17">
-        <v>100</v>
-      </c>
-      <c r="Q17">
-        <v>2.4</v>
-      </c>
-      <c r="R17">
-        <v>6</v>
-      </c>
-      <c r="S17">
-        <v>20</v>
-      </c>
-      <c r="T17" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>9628820067891</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>300</v>
+      </c>
+      <c r="I18">
+        <v>12</v>
+      </c>
+      <c r="J18">
+        <v>30</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18">
+        <v>350</v>
+      </c>
+      <c r="N18">
+        <v>350</v>
+      </c>
+      <c r="O18">
+        <v>150</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>18375</v>
+      </c>
+      <c r="Q18">
         <v>800</v>
       </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>8</v>
-      </c>
-      <c r="J18">
+      <c r="R18">
         <v>2500</v>
       </c>
-      <c r="K18">
+      <c r="S18">
         <v>3999</v>
       </c>
-      <c r="M18">
+      <c r="U18">
         <v>3999</v>
       </c>
-      <c r="N18" t="s">
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>7838779560530</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
         <v>67</v>
-      </c>
-      <c r="O18">
-        <v>3</v>
-      </c>
-      <c r="P18">
-        <v>300</v>
-      </c>
-      <c r="Q18">
-        <v>12</v>
-      </c>
-      <c r="R18">
-        <v>30</v>
-      </c>
-      <c r="S18">
-        <v>100</v>
-      </c>
-      <c r="T18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>7838779560530</v>
-      </c>
-      <c r="B19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" t="s">
-        <v>85</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>69</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="I19">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="J19">
+        <v>160</v>
+      </c>
+      <c r="K19">
+        <v>400</v>
+      </c>
+      <c r="L19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19">
+        <v>100</v>
+      </c>
+      <c r="N19">
+        <v>50</v>
+      </c>
+      <c r="O19">
+        <v>150</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="R19">
         <v>1200</v>
       </c>
-      <c r="K19">
+      <c r="S19">
         <v>1999</v>
       </c>
-      <c r="M19">
+      <c r="U19">
         <v>1999</v>
       </c>
-      <c r="N19" t="s">
-        <v>88</v>
-      </c>
-      <c r="O19">
-        <v>4</v>
-      </c>
-      <c r="P19">
-        <v>1000</v>
-      </c>
-      <c r="Q19">
-        <v>64</v>
-      </c>
-      <c r="R19">
-        <v>160</v>
-      </c>
-      <c r="S19">
-        <v>400</v>
-      </c>
-      <c r="T19" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>7561851192224</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>69</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>800</v>
       </c>
       <c r="I20">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="J20">
+        <v>120</v>
+      </c>
+      <c r="K20">
+        <v>300</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20">
+        <v>80</v>
+      </c>
+      <c r="N20">
+        <v>80</v>
+      </c>
+      <c r="O20">
+        <v>100</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>640</v>
+      </c>
+      <c r="R20">
         <v>1800</v>
       </c>
-      <c r="K20">
+      <c r="S20">
         <v>2999</v>
       </c>
-      <c r="M20">
+      <c r="U20">
         <v>2999</v>
       </c>
-      <c r="N20" t="s">
-        <v>88</v>
-      </c>
-      <c r="O20">
-        <v>4</v>
-      </c>
-      <c r="P20">
-        <v>800</v>
-      </c>
-      <c r="Q20">
-        <v>48</v>
-      </c>
-      <c r="R20">
-        <v>120</v>
-      </c>
-      <c r="S20">
-        <v>300</v>
-      </c>
-      <c r="T20" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>1836885216532</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>75</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2100</v>
       </c>
       <c r="I21">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="J21">
+        <v>160</v>
+      </c>
+      <c r="K21">
+        <v>800</v>
+      </c>
+      <c r="L21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21">
+        <v>20</v>
+      </c>
+      <c r="N21">
+        <v>20</v>
+      </c>
+      <c r="O21">
+        <v>80</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="R21">
         <v>1000</v>
       </c>
-      <c r="K21">
+      <c r="S21">
         <v>1799</v>
       </c>
-      <c r="M21">
+      <c r="U21">
         <v>1799</v>
       </c>
-      <c r="N21" t="s">
-        <v>96</v>
-      </c>
-      <c r="O21">
-        <v>2</v>
-      </c>
-      <c r="P21">
-        <v>2100</v>
-      </c>
-      <c r="Q21">
-        <v>64</v>
-      </c>
-      <c r="R21">
-        <v>160</v>
-      </c>
-      <c r="S21">
-        <v>800</v>
-      </c>
-      <c r="T21" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>3205998343537</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s">
-        <v>99</v>
+        <v>75</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1300</v>
       </c>
       <c r="I22">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J22">
+        <v>100</v>
+      </c>
+      <c r="K22">
+        <v>500</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22">
+        <v>120</v>
+      </c>
+      <c r="N22">
+        <v>80</v>
+      </c>
+      <c r="O22">
+        <v>20</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="R22">
         <v>2500</v>
       </c>
-      <c r="K22">
+      <c r="S22">
         <v>3999</v>
       </c>
-      <c r="M22">
+      <c r="U22">
         <v>3999</v>
       </c>
-      <c r="N22" t="s">
-        <v>96</v>
-      </c>
-      <c r="O22">
-        <v>2</v>
-      </c>
-      <c r="P22">
-        <v>1300</v>
-      </c>
-      <c r="Q22">
-        <v>40</v>
-      </c>
-      <c r="R22">
-        <v>100</v>
-      </c>
-      <c r="S22">
-        <v>500</v>
-      </c>
-      <c r="T22" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>3176620311746</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s">
-        <v>102</v>
+        <v>75</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="I23">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J23">
+        <v>120</v>
+      </c>
+      <c r="K23">
+        <v>600</v>
+      </c>
+      <c r="L23" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23">
+        <v>30</v>
+      </c>
+      <c r="N23">
+        <v>30</v>
+      </c>
+      <c r="O23">
+        <v>150</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="R23">
         <v>1500</v>
       </c>
-      <c r="K23">
+      <c r="S23">
         <v>2499</v>
       </c>
-      <c r="M23">
+      <c r="U23">
         <v>2499</v>
       </c>
-      <c r="N23" t="s">
-        <v>96</v>
-      </c>
-      <c r="O23">
-        <v>2</v>
-      </c>
-      <c r="P23">
-        <v>1600</v>
-      </c>
-      <c r="Q23">
-        <v>48</v>
-      </c>
-      <c r="R23">
-        <v>120</v>
-      </c>
-      <c r="S23">
-        <v>600</v>
-      </c>
-      <c r="T23" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>9786209571178</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
         <v>500</v>
       </c>
-      <c r="H24">
-        <v>4</v>
-      </c>
       <c r="I24">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J24">
+        <v>60</v>
+      </c>
+      <c r="K24">
+        <v>200</v>
+      </c>
+      <c r="L24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24">
+        <v>300</v>
+      </c>
+      <c r="N24">
+        <v>200</v>
+      </c>
+      <c r="O24">
+        <v>100</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="Q24">
+        <v>500</v>
+      </c>
+      <c r="R24">
         <v>1500</v>
       </c>
-      <c r="K24">
+      <c r="S24">
         <v>2499</v>
       </c>
-      <c r="M24">
+      <c r="U24">
         <v>2499</v>
       </c>
-      <c r="N24" t="s">
-        <v>106</v>
-      </c>
-      <c r="O24">
-        <v>3</v>
-      </c>
-      <c r="P24">
-        <v>500</v>
-      </c>
-      <c r="Q24">
-        <v>24</v>
-      </c>
-      <c r="R24">
-        <v>60</v>
-      </c>
-      <c r="S24">
-        <v>200</v>
-      </c>
-      <c r="T24" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>2435806330824</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>400</v>
+      </c>
+      <c r="I25">
+        <v>24</v>
+      </c>
+      <c r="J25">
+        <v>60</v>
+      </c>
+      <c r="K25">
+        <v>150</v>
+      </c>
+      <c r="L25" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25">
+        <v>200</v>
+      </c>
+      <c r="N25">
+        <v>180</v>
+      </c>
+      <c r="O25">
+        <v>50</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="Q25">
         <v>1500</v>
       </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="I25">
-        <v>10</v>
-      </c>
-      <c r="J25">
+      <c r="R25">
         <v>2500</v>
       </c>
-      <c r="K25">
+      <c r="S25">
         <v>3999</v>
       </c>
-      <c r="M25">
+      <c r="U25">
         <v>3999</v>
       </c>
-      <c r="N25" t="s">
-        <v>111</v>
-      </c>
-      <c r="O25">
-        <v>4</v>
-      </c>
-      <c r="P25">
-        <v>400</v>
-      </c>
-      <c r="Q25">
-        <v>24</v>
-      </c>
-      <c r="R25">
-        <v>60</v>
-      </c>
-      <c r="S25">
-        <v>150</v>
-      </c>
-      <c r="T25" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>5695885381450</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="F26" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="G26">
-        <v>2500</v>
+        <v>2</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>300</v>
       </c>
       <c r="I26">
         <v>8</v>
       </c>
       <c r="J26">
+        <v>20</v>
+      </c>
+      <c r="K26">
+        <v>100</v>
+      </c>
+      <c r="L26" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26">
+        <v>300</v>
+      </c>
+      <c r="N26">
+        <v>200</v>
+      </c>
+      <c r="O26">
+        <v>400</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>24000</v>
+      </c>
+      <c r="Q26">
+        <v>2500</v>
+      </c>
+      <c r="R26">
         <v>4000</v>
       </c>
-      <c r="K26">
+      <c r="S26">
         <v>6999</v>
       </c>
-      <c r="L26">
+      <c r="T26">
         <v>20</v>
       </c>
-      <c r="M26">
+      <c r="U26">
         <v>5599</v>
       </c>
-      <c r="N26" t="s">
-        <v>115</v>
-      </c>
-      <c r="O26">
-        <v>2</v>
-      </c>
-      <c r="P26">
-        <v>300</v>
-      </c>
-      <c r="Q26">
-        <v>8</v>
-      </c>
-      <c r="R26">
-        <v>20</v>
-      </c>
-      <c r="S26">
-        <v>100</v>
-      </c>
-      <c r="T26" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>2648940918652</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="F27" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>10</v>
+      </c>
+      <c r="K27">
+        <v>50</v>
+      </c>
+      <c r="L27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27">
+        <v>350</v>
+      </c>
+      <c r="N27">
+        <v>300</v>
+      </c>
+      <c r="O27">
+        <v>250</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>26250</v>
+      </c>
+      <c r="Q27">
         <v>4000</v>
       </c>
-      <c r="H27">
-        <v>4</v>
-      </c>
-      <c r="I27">
-        <v>8</v>
-      </c>
-      <c r="J27">
+      <c r="R27">
         <v>3000</v>
       </c>
-      <c r="K27">
+      <c r="S27">
         <v>4999</v>
       </c>
-      <c r="L27">
+      <c r="T27">
         <v>15</v>
       </c>
-      <c r="M27">
+      <c r="U27">
         <v>4249</v>
       </c>
-      <c r="N27" t="s">
-        <v>115</v>
-      </c>
-      <c r="O27">
-        <v>2</v>
-      </c>
-      <c r="P27">
-        <v>100</v>
-      </c>
-      <c r="Q27">
-        <v>4</v>
-      </c>
-      <c r="R27">
-        <v>10</v>
-      </c>
-      <c r="S27">
-        <v>50</v>
-      </c>
-      <c r="T27" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>5771394278981</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>300</v>
+      </c>
+      <c r="I28">
+        <v>24</v>
+      </c>
+      <c r="J28">
+        <v>60</v>
+      </c>
+      <c r="K28">
         <v>120</v>
       </c>
-      <c r="F28" t="s">
-        <v>118</v>
-      </c>
-      <c r="G28">
+      <c r="L28" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28">
+        <v>350</v>
+      </c>
+      <c r="N28">
+        <v>300</v>
+      </c>
+      <c r="O28">
+        <v>250</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>26250</v>
+      </c>
+      <c r="Q28">
         <v>1200</v>
       </c>
-      <c r="H28">
-        <v>4</v>
-      </c>
-      <c r="I28">
-        <v>12</v>
-      </c>
-      <c r="J28">
+      <c r="R28">
         <v>2000</v>
       </c>
-      <c r="K28">
+      <c r="S28">
         <v>3499</v>
       </c>
-      <c r="M28">
+      <c r="U28">
         <v>3499</v>
       </c>
-      <c r="N28" t="s">
-        <v>121</v>
-      </c>
-      <c r="O28">
-        <v>5</v>
-      </c>
-      <c r="P28">
-        <v>300</v>
-      </c>
-      <c r="Q28">
-        <v>24</v>
-      </c>
-      <c r="R28">
-        <v>60</v>
-      </c>
-      <c r="S28">
-        <v>120</v>
-      </c>
-      <c r="T28" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>3533529471857</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="F29" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>400</v>
+      </c>
+      <c r="I29">
+        <v>18</v>
+      </c>
+      <c r="J29">
+        <v>45</v>
+      </c>
+      <c r="K29">
+        <v>150</v>
+      </c>
+      <c r="L29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29">
+        <v>400</v>
+      </c>
+      <c r="N29">
+        <v>300</v>
+      </c>
+      <c r="O29">
+        <v>250</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="Q29">
         <v>5000</v>
       </c>
-      <c r="H29">
-        <v>4</v>
-      </c>
-      <c r="I29">
-        <v>4</v>
-      </c>
-      <c r="J29">
+      <c r="R29">
         <v>8000</v>
       </c>
-      <c r="K29">
+      <c r="S29">
         <v>12999</v>
       </c>
-      <c r="L29">
+      <c r="T29">
         <v>10</v>
       </c>
-      <c r="M29">
+      <c r="U29">
         <v>11699</v>
       </c>
-      <c r="N29" t="s">
-        <v>125</v>
-      </c>
-      <c r="O29">
-        <v>3</v>
-      </c>
-      <c r="P29">
-        <v>400</v>
-      </c>
-      <c r="Q29">
-        <v>18</v>
-      </c>
-      <c r="R29">
-        <v>45</v>
-      </c>
-      <c r="S29">
-        <v>150</v>
-      </c>
-      <c r="T29" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>7398454314502</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D30">
         <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="F30" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>500</v>
+      </c>
+      <c r="I30">
+        <v>32</v>
+      </c>
+      <c r="J30">
+        <v>80</v>
+      </c>
+      <c r="K30">
+        <v>200</v>
+      </c>
+      <c r="L30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30">
+        <v>400</v>
+      </c>
+      <c r="N30">
+        <v>300</v>
+      </c>
+      <c r="O30">
+        <v>250</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="Q30">
         <v>600</v>
       </c>
-      <c r="H30">
-        <v>3</v>
-      </c>
-      <c r="I30">
-        <v>12</v>
-      </c>
-      <c r="J30">
+      <c r="R30">
         <v>2000</v>
       </c>
-      <c r="K30">
+      <c r="S30">
         <v>3499</v>
       </c>
-      <c r="M30">
+      <c r="U30">
         <v>3499</v>
       </c>
-      <c r="N30" t="s">
-        <v>111</v>
-      </c>
-      <c r="O30">
-        <v>4</v>
-      </c>
-      <c r="P30">
-        <v>500</v>
-      </c>
-      <c r="Q30">
-        <v>32</v>
-      </c>
-      <c r="R30">
-        <v>80</v>
-      </c>
-      <c r="S30">
-        <v>200</v>
-      </c>
-      <c r="T30" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>7636536148275</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>200</v>
+      </c>
+      <c r="I31">
+        <v>5.6000000000000014</v>
+      </c>
+      <c r="J31">
+        <v>14</v>
+      </c>
+      <c r="K31">
+        <v>70</v>
+      </c>
+      <c r="L31" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31">
+        <v>350</v>
+      </c>
+      <c r="N31">
+        <v>200</v>
+      </c>
+      <c r="O31">
+        <v>50</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
+      <c r="Q31">
         <v>2000</v>
       </c>
-      <c r="H31">
-        <v>2</v>
-      </c>
-      <c r="I31">
-        <v>10</v>
-      </c>
-      <c r="J31">
+      <c r="R31">
         <v>5000</v>
       </c>
-      <c r="K31">
+      <c r="S31">
         <v>7999</v>
       </c>
-      <c r="L31">
+      <c r="T31">
         <v>15</v>
       </c>
-      <c r="M31">
+      <c r="U31">
         <v>6799</v>
       </c>
-      <c r="N31" t="s">
-        <v>131</v>
-      </c>
-      <c r="O31">
-        <v>2</v>
-      </c>
-      <c r="P31">
-        <v>200</v>
-      </c>
-      <c r="Q31">
-        <v>5.6000000000000014</v>
-      </c>
-      <c r="R31">
-        <v>14</v>
-      </c>
-      <c r="S31">
-        <v>70</v>
-      </c>
-      <c r="T31" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>2654093619393</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="F32" t="s">
-        <v>134</v>
+        <v>105</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="I32">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J32">
+        <v>25</v>
+      </c>
+      <c r="K32">
+        <v>50</v>
+      </c>
+      <c r="L32" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32">
+        <v>600</v>
+      </c>
+      <c r="N32">
+        <v>400</v>
+      </c>
+      <c r="O32">
+        <v>200</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>48000</v>
+      </c>
+      <c r="R32">
         <v>10000</v>
       </c>
-      <c r="K32">
+      <c r="S32">
         <v>16999</v>
       </c>
-      <c r="M32">
+      <c r="U32">
         <v>16999</v>
       </c>
-      <c r="N32" t="s">
-        <v>135</v>
-      </c>
-      <c r="O32">
-        <v>5</v>
-      </c>
-      <c r="P32">
-        <v>100</v>
-      </c>
-      <c r="Q32">
-        <v>10</v>
-      </c>
-      <c r="R32">
-        <v>25</v>
-      </c>
-      <c r="S32">
-        <v>50</v>
-      </c>
-      <c r="T32" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>8222252841707</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F33" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>600</v>
+      </c>
+      <c r="I33">
+        <v>30</v>
+      </c>
+      <c r="J33">
+        <v>75</v>
+      </c>
+      <c r="K33">
+        <v>250</v>
+      </c>
+      <c r="L33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33">
+        <v>300</v>
+      </c>
+      <c r="N33">
+        <v>300</v>
+      </c>
+      <c r="O33">
+        <v>50</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>4500</v>
+      </c>
+      <c r="Q33">
         <v>800</v>
       </c>
-      <c r="H33">
-        <v>2</v>
-      </c>
-      <c r="I33">
-        <v>4</v>
-      </c>
-      <c r="J33">
+      <c r="R33">
         <v>1500</v>
       </c>
-      <c r="K33">
+      <c r="S33">
         <v>2499</v>
       </c>
-      <c r="M33">
+      <c r="U33">
         <v>2499</v>
       </c>
-      <c r="N33" t="s">
-        <v>139</v>
-      </c>
-      <c r="O33">
-        <v>3</v>
-      </c>
-      <c r="P33">
-        <v>600</v>
-      </c>
-      <c r="Q33">
-        <v>30</v>
-      </c>
-      <c r="R33">
-        <v>75</v>
-      </c>
-      <c r="S33">
-        <v>250</v>
-      </c>
-      <c r="T33" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>6263490087549</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="F34" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <v>2100</v>
+      </c>
+      <c r="I34">
+        <v>128</v>
+      </c>
+      <c r="J34">
+        <v>320</v>
+      </c>
+      <c r="K34">
+        <v>800</v>
+      </c>
+      <c r="L34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34">
+        <v>100</v>
+      </c>
+      <c r="N34">
+        <v>80</v>
+      </c>
+      <c r="O34">
+        <v>120</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="Q34">
         <v>300</v>
       </c>
-      <c r="H34">
-        <v>2</v>
-      </c>
-      <c r="I34">
-        <v>16</v>
-      </c>
-      <c r="J34">
+      <c r="R34">
         <v>500</v>
       </c>
-      <c r="K34">
+      <c r="S34">
         <v>999</v>
       </c>
-      <c r="M34">
+      <c r="U34">
         <v>999</v>
       </c>
-      <c r="N34" t="s">
-        <v>143</v>
-      </c>
-      <c r="O34">
-        <v>4</v>
-      </c>
-      <c r="P34">
-        <v>2100</v>
-      </c>
-      <c r="Q34">
-        <v>128</v>
-      </c>
-      <c r="R34">
-        <v>320</v>
-      </c>
-      <c r="S34">
-        <v>800</v>
-      </c>
-      <c r="T34" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>4657009497505</v>
       </c>
       <c r="B35" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="F35" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <v>300</v>
+      </c>
+      <c r="I35">
+        <v>16</v>
+      </c>
+      <c r="J35">
+        <v>40</v>
+      </c>
+      <c r="K35">
+        <v>100</v>
+      </c>
+      <c r="L35" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35">
+        <v>300</v>
+      </c>
+      <c r="N35">
+        <v>200</v>
+      </c>
+      <c r="O35">
+        <v>20</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="Q35">
         <v>600</v>
       </c>
-      <c r="H35">
-        <v>2</v>
-      </c>
-      <c r="I35">
-        <v>8</v>
-      </c>
-      <c r="J35">
+      <c r="R35">
         <v>1200</v>
       </c>
-      <c r="K35">
+      <c r="S35">
         <v>1999</v>
       </c>
-      <c r="M35">
+      <c r="U35">
         <v>1999</v>
       </c>
-      <c r="N35" t="s">
-        <v>131</v>
-      </c>
-      <c r="O35">
-        <v>4</v>
-      </c>
-      <c r="P35">
-        <v>300</v>
-      </c>
-      <c r="Q35">
-        <v>16</v>
-      </c>
-      <c r="R35">
-        <v>40</v>
-      </c>
-      <c r="S35">
-        <v>100</v>
-      </c>
-      <c r="T35" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>2853659988987</v>
       </c>
       <c r="B36" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="F36" t="s">
-        <v>146</v>
+        <v>102</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="I36">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="J36">
+        <v>100</v>
+      </c>
+      <c r="K36">
+        <v>250</v>
+      </c>
+      <c r="L36" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36">
+        <v>300</v>
+      </c>
+      <c r="N36">
+        <v>200</v>
+      </c>
+      <c r="O36">
+        <v>20</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="R36">
         <v>1500</v>
       </c>
-      <c r="K36">
+      <c r="S36">
         <v>2499</v>
       </c>
-      <c r="M36">
+      <c r="U36">
         <v>2499</v>
       </c>
-      <c r="N36" t="s">
-        <v>131</v>
-      </c>
-      <c r="O36">
-        <v>4</v>
-      </c>
-      <c r="P36">
-        <v>600</v>
-      </c>
-      <c r="Q36">
-        <v>40</v>
-      </c>
-      <c r="R36">
-        <v>100</v>
-      </c>
-      <c r="S36">
-        <v>250</v>
-      </c>
-      <c r="T36" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>2928949171775</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="F37" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>200</v>
+      </c>
+      <c r="I37">
+        <v>6.3999999999999986</v>
+      </c>
+      <c r="J37">
+        <v>16</v>
+      </c>
+      <c r="K37">
+        <v>80</v>
+      </c>
+      <c r="L37" t="s">
+        <v>31</v>
+      </c>
+      <c r="M37">
+        <v>200</v>
+      </c>
+      <c r="N37">
+        <v>200</v>
+      </c>
+      <c r="O37">
+        <v>400</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="Q37">
         <v>4000</v>
       </c>
-      <c r="H37">
-        <v>4</v>
-      </c>
-      <c r="I37">
-        <v>6</v>
-      </c>
-      <c r="J37">
+      <c r="R37">
         <v>6000</v>
       </c>
-      <c r="K37">
+      <c r="S37">
         <v>9999</v>
       </c>
-      <c r="L37">
+      <c r="T37">
         <v>10</v>
       </c>
-      <c r="M37">
+      <c r="U37">
         <v>8999</v>
       </c>
-      <c r="N37" t="s">
-        <v>152</v>
-      </c>
-      <c r="O37">
-        <v>2</v>
-      </c>
-      <c r="P37">
-        <v>200</v>
-      </c>
-      <c r="Q37">
-        <v>6.3999999999999986</v>
-      </c>
-      <c r="R37">
-        <v>16</v>
-      </c>
-      <c r="S37">
-        <v>80</v>
-      </c>
-      <c r="T37" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>7496733422534</v>
       </c>
       <c r="B38" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D38">
         <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="F38" t="s">
-        <v>155</v>
+        <v>121</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="I38">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="J38">
+        <v>100</v>
+      </c>
+      <c r="K38">
+        <v>200</v>
+      </c>
+      <c r="L38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38">
+        <v>300</v>
+      </c>
+      <c r="N38">
+        <v>250</v>
+      </c>
+      <c r="O38">
+        <v>200</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="R38">
         <v>2000</v>
       </c>
-      <c r="K38">
+      <c r="S38">
         <v>3499</v>
       </c>
-      <c r="M38">
+      <c r="U38">
         <v>3499</v>
       </c>
-      <c r="N38" t="s">
-        <v>156</v>
-      </c>
-      <c r="O38">
-        <v>5</v>
-      </c>
-      <c r="P38">
-        <v>500</v>
-      </c>
-      <c r="Q38">
-        <v>40</v>
-      </c>
-      <c r="R38">
-        <v>100</v>
-      </c>
-      <c r="S38">
-        <v>200</v>
-      </c>
-      <c r="T38" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>7250030042290</v>
       </c>
       <c r="B39" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="F39" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>400</v>
+      </c>
+      <c r="I39">
+        <v>18</v>
+      </c>
+      <c r="J39">
+        <v>45</v>
+      </c>
+      <c r="K39">
+        <v>150</v>
+      </c>
+      <c r="L39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39">
+        <v>400</v>
+      </c>
+      <c r="N39">
+        <v>200</v>
+      </c>
+      <c r="O39">
+        <v>200</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="Q39">
         <v>3000</v>
       </c>
-      <c r="H39">
-        <v>4</v>
-      </c>
-      <c r="I39">
-        <v>4</v>
-      </c>
-      <c r="J39">
+      <c r="R39">
         <v>2500</v>
       </c>
-      <c r="K39">
+      <c r="S39">
         <v>3999</v>
       </c>
-      <c r="M39">
+      <c r="U39">
         <v>3999</v>
       </c>
-      <c r="N39" t="s">
-        <v>160</v>
-      </c>
-      <c r="O39">
-        <v>3</v>
-      </c>
-      <c r="P39">
-        <v>400</v>
-      </c>
-      <c r="Q39">
-        <v>18</v>
-      </c>
-      <c r="R39">
-        <v>45</v>
-      </c>
-      <c r="S39">
-        <v>150</v>
-      </c>
-      <c r="T39" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>8635315128593</v>
       </c>
       <c r="B40" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="F40" t="s">
-        <v>70</v>
+        <v>124</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="I40">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J40">
+        <v>75</v>
+      </c>
+      <c r="K40">
+        <v>250</v>
+      </c>
+      <c r="L40" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40">
+        <v>200</v>
+      </c>
+      <c r="N40">
+        <v>150</v>
+      </c>
+      <c r="O40">
+        <v>50</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="K40">
+      <c r="R40">
+        <v>1500</v>
+      </c>
+      <c r="S40">
         <v>2499</v>
       </c>
-      <c r="M40">
+      <c r="U40">
         <v>2499</v>
       </c>
-      <c r="N40" t="s">
-        <v>160</v>
-      </c>
-      <c r="O40">
-        <v>3</v>
-      </c>
-      <c r="P40">
-        <v>600</v>
-      </c>
-      <c r="Q40">
-        <v>30</v>
-      </c>
-      <c r="R40">
-        <v>75</v>
-      </c>
-      <c r="S40">
-        <v>250</v>
-      </c>
-      <c r="T40" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>1991831479117</v>
       </c>
       <c r="B41" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="F41" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>400</v>
+      </c>
+      <c r="I41">
+        <v>12</v>
+      </c>
+      <c r="J41">
+        <v>30</v>
+      </c>
+      <c r="K41">
+        <v>150</v>
+      </c>
+      <c r="L41" t="s">
+        <v>23</v>
+      </c>
+      <c r="M41">
+        <v>350</v>
+      </c>
+      <c r="N41">
+        <v>250</v>
+      </c>
+      <c r="O41">
+        <v>100</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>8750</v>
+      </c>
+      <c r="Q41">
         <v>2500</v>
       </c>
-      <c r="H41">
-        <v>3</v>
-      </c>
-      <c r="I41">
-        <v>2</v>
-      </c>
-      <c r="J41">
+      <c r="R41">
         <v>5000</v>
       </c>
-      <c r="K41">
+      <c r="S41">
         <v>8999</v>
       </c>
-      <c r="L41">
+      <c r="T41">
         <v>20</v>
       </c>
-      <c r="M41">
+      <c r="U41">
         <v>7199</v>
       </c>
-      <c r="N41" t="s">
-        <v>166</v>
-      </c>
-      <c r="O41">
-        <v>2</v>
-      </c>
-      <c r="P41">
-        <v>400</v>
-      </c>
-      <c r="Q41">
-        <v>12</v>
-      </c>
-      <c r="R41">
-        <v>30</v>
-      </c>
-      <c r="S41">
-        <v>150</v>
-      </c>
-      <c r="T41" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>6983968005861</v>
       </c>
       <c r="B42" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="F42" t="s">
-        <v>169</v>
+        <v>129</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>400</v>
       </c>
       <c r="I42">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J42">
+        <v>30</v>
+      </c>
+      <c r="K42">
+        <v>150</v>
+      </c>
+      <c r="L42" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42">
+        <v>400</v>
+      </c>
+      <c r="N42">
+        <v>150</v>
+      </c>
+      <c r="O42">
+        <v>50</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="R42">
         <v>1000</v>
       </c>
-      <c r="K42">
+      <c r="S42">
         <v>1799</v>
       </c>
-      <c r="M42">
+      <c r="U42">
         <v>1799</v>
       </c>
-      <c r="N42" t="s">
-        <v>166</v>
-      </c>
-      <c r="O42">
-        <v>2</v>
-      </c>
-      <c r="P42">
-        <v>400</v>
-      </c>
-      <c r="Q42">
-        <v>12</v>
-      </c>
-      <c r="R42">
-        <v>30</v>
-      </c>
-      <c r="S42">
-        <v>150</v>
-      </c>
-      <c r="T42" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>8582231850503</v>
       </c>
       <c r="B43" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="F43" t="s">
-        <v>169</v>
+        <v>124</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I43">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="J43">
+        <v>120</v>
+      </c>
+      <c r="K43">
+        <v>400</v>
+      </c>
+      <c r="L43" t="s">
+        <v>23</v>
+      </c>
+      <c r="M43">
+        <v>400</v>
+      </c>
+      <c r="N43">
+        <v>150</v>
+      </c>
+      <c r="O43">
+        <v>50</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="R43">
         <v>500</v>
       </c>
-      <c r="K43">
+      <c r="S43">
         <v>999</v>
       </c>
-      <c r="M43">
+      <c r="U43">
         <v>999</v>
       </c>
-      <c r="N43" t="s">
-        <v>160</v>
-      </c>
-      <c r="O43">
-        <v>3</v>
-      </c>
-      <c r="P43">
-        <v>1000</v>
-      </c>
-      <c r="Q43">
-        <v>48</v>
-      </c>
-      <c r="R43">
-        <v>120</v>
-      </c>
-      <c r="S43">
-        <v>400</v>
-      </c>
-      <c r="T43" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>1140002674293</v>
       </c>
       <c r="B44" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="F44" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>800</v>
+      </c>
+      <c r="I44">
+        <v>36</v>
+      </c>
+      <c r="J44">
+        <v>90</v>
+      </c>
+      <c r="K44">
+        <v>300</v>
+      </c>
+      <c r="L44" t="s">
+        <v>26</v>
+      </c>
+      <c r="M44">
+        <v>300</v>
+      </c>
+      <c r="N44">
+        <v>100</v>
+      </c>
+      <c r="O44">
+        <v>50</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="Q44">
         <v>500</v>
       </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>8</v>
-      </c>
-      <c r="J44">
+      <c r="R44">
         <v>800</v>
       </c>
-      <c r="K44">
+      <c r="S44">
         <v>1499</v>
       </c>
-      <c r="M44">
+      <c r="U44">
         <v>1499</v>
       </c>
-      <c r="N44" t="s">
-        <v>160</v>
-      </c>
-      <c r="O44">
-        <v>3</v>
-      </c>
-      <c r="P44">
-        <v>800</v>
-      </c>
-      <c r="Q44">
-        <v>36</v>
-      </c>
-      <c r="R44">
-        <v>90</v>
-      </c>
-      <c r="S44">
-        <v>300</v>
-      </c>
-      <c r="T44" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>6173200653703</v>
       </c>
       <c r="B45" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="F45" t="s">
-        <v>174</v>
+        <v>124</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="I45">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="J45">
+        <v>180</v>
+      </c>
+      <c r="K45">
+        <v>600</v>
+      </c>
+      <c r="L45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M45">
+        <v>300</v>
+      </c>
+      <c r="N45">
+        <v>100</v>
+      </c>
+      <c r="O45">
+        <v>50</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="R45">
         <v>1000</v>
       </c>
-      <c r="K45">
+      <c r="S45">
         <v>1799</v>
       </c>
-      <c r="M45">
+      <c r="U45">
         <v>1799</v>
       </c>
-      <c r="N45" t="s">
-        <v>160</v>
-      </c>
-      <c r="O45">
-        <v>3</v>
-      </c>
-      <c r="P45">
-        <v>1600</v>
-      </c>
-      <c r="Q45">
-        <v>72</v>
-      </c>
-      <c r="R45">
-        <v>180</v>
-      </c>
-      <c r="S45">
-        <v>600</v>
-      </c>
-      <c r="T45" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>1994319705304</v>
       </c>
       <c r="B46" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="F46" t="s">
-        <v>179</v>
+        <v>124</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="I46">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="J46">
+        <v>75</v>
+      </c>
+      <c r="K46">
+        <v>250</v>
+      </c>
+      <c r="L46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M46">
+        <v>200</v>
+      </c>
+      <c r="N46">
+        <v>50</v>
+      </c>
+      <c r="O46">
+        <v>20</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="R46">
         <v>600</v>
       </c>
-      <c r="K46">
+      <c r="S46">
         <v>1199</v>
       </c>
-      <c r="M46">
+      <c r="U46">
         <v>1199</v>
       </c>
-      <c r="N46" t="s">
-        <v>160</v>
-      </c>
-      <c r="O46">
-        <v>3</v>
-      </c>
-      <c r="P46">
-        <v>600</v>
-      </c>
-      <c r="Q46">
-        <v>30</v>
-      </c>
-      <c r="R46">
-        <v>75</v>
-      </c>
-      <c r="S46">
-        <v>250</v>
-      </c>
-      <c r="T46" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>8469701745293</v>
       </c>
       <c r="B47" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="F47" t="s">
-        <v>182</v>
+        <v>124</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="I47">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J47">
+        <v>30</v>
+      </c>
+      <c r="K47">
+        <v>100</v>
+      </c>
+      <c r="L47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47">
+        <v>100</v>
+      </c>
+      <c r="N47">
+        <v>70</v>
+      </c>
+      <c r="O47">
+        <v>30</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="R47">
         <v>500</v>
       </c>
-      <c r="K47">
+      <c r="S47">
         <v>999</v>
       </c>
-      <c r="M47">
+      <c r="U47">
         <v>999</v>
       </c>
-      <c r="N47" t="s">
-        <v>160</v>
-      </c>
-      <c r="O47">
-        <v>3</v>
-      </c>
-      <c r="P47">
-        <v>300</v>
-      </c>
-      <c r="Q47">
-        <v>12</v>
-      </c>
-      <c r="R47">
-        <v>30</v>
-      </c>
-      <c r="S47">
-        <v>100</v>
-      </c>
-      <c r="T47" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>4347668189572</v>
       </c>
       <c r="B48" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D48">
         <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="F48" t="s">
-        <v>185</v>
+        <v>129</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="I48">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J48">
+        <v>40</v>
+      </c>
+      <c r="K48">
+        <v>200</v>
+      </c>
+      <c r="L48" t="s">
+        <v>23</v>
+      </c>
+      <c r="M48">
+        <v>250</v>
+      </c>
+      <c r="N48">
+        <v>100</v>
+      </c>
+      <c r="O48">
+        <v>50</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+      <c r="R48">
         <v>1200</v>
       </c>
-      <c r="K48">
+      <c r="S48">
         <v>1999</v>
       </c>
-      <c r="M48">
+      <c r="U48">
         <v>1999</v>
       </c>
-      <c r="N48" t="s">
-        <v>166</v>
-      </c>
-      <c r="O48">
-        <v>2</v>
-      </c>
-      <c r="P48">
-        <v>500</v>
-      </c>
-      <c r="Q48">
-        <v>16</v>
-      </c>
-      <c r="R48">
-        <v>40</v>
-      </c>
-      <c r="S48">
-        <v>200</v>
-      </c>
-      <c r="T48" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>7011258015397</v>
       </c>
       <c r="B49" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="F49" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>600</v>
+      </c>
+      <c r="I49">
+        <v>30</v>
+      </c>
+      <c r="J49">
+        <v>75</v>
+      </c>
+      <c r="K49">
+        <v>250</v>
+      </c>
+      <c r="L49" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49">
+        <v>300</v>
+      </c>
+      <c r="N49">
+        <v>40</v>
+      </c>
+      <c r="O49">
+        <v>20</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="Q49">
         <v>800</v>
       </c>
-      <c r="H49">
-        <v>3</v>
-      </c>
-      <c r="I49">
-        <v>22</v>
-      </c>
-      <c r="J49">
+      <c r="R49">
         <v>1500</v>
       </c>
-      <c r="K49">
+      <c r="S49">
         <v>2499</v>
       </c>
-      <c r="M49">
+      <c r="U49">
         <v>2499</v>
       </c>
-      <c r="N49" t="s">
-        <v>160</v>
-      </c>
-      <c r="O49">
-        <v>3</v>
-      </c>
-      <c r="P49">
-        <v>600</v>
-      </c>
-      <c r="Q49">
-        <v>30</v>
-      </c>
-      <c r="R49">
-        <v>75</v>
-      </c>
-      <c r="S49">
-        <v>250</v>
-      </c>
-      <c r="T49" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>5836344443744</v>
       </c>
       <c r="B50" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D50">
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="F50" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>2100</v>
+      </c>
+      <c r="I50">
+        <v>96</v>
+      </c>
+      <c r="J50">
+        <v>240</v>
+      </c>
+      <c r="K50">
+        <v>800</v>
+      </c>
+      <c r="L50" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50">
+        <v>100</v>
+      </c>
+      <c r="N50">
+        <v>50</v>
+      </c>
+      <c r="O50">
+        <v>50</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="H50">
-        <v>2</v>
-      </c>
-      <c r="I50">
-        <v>16</v>
-      </c>
-      <c r="J50">
+      <c r="Q50">
+        <v>250</v>
+      </c>
+      <c r="R50">
         <v>1000</v>
       </c>
-      <c r="K50">
+      <c r="S50">
         <v>1699</v>
       </c>
-      <c r="M50">
+      <c r="U50">
         <v>1699</v>
       </c>
-      <c r="N50" t="s">
-        <v>192</v>
-      </c>
-      <c r="O50">
-        <v>3</v>
-      </c>
-      <c r="P50">
-        <v>2100</v>
-      </c>
-      <c r="Q50">
-        <v>96</v>
-      </c>
-      <c r="R50">
-        <v>240</v>
-      </c>
-      <c r="S50">
-        <v>800</v>
-      </c>
-      <c r="T50" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>4574688715507</v>
       </c>
       <c r="B51" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="F51" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c r="G51">
-        <v>5000</v>
+        <v>3</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="I51">
         <v>6</v>
       </c>
       <c r="J51">
+        <v>15</v>
+      </c>
+      <c r="K51">
+        <v>50</v>
+      </c>
+      <c r="L51" t="s">
+        <v>23</v>
+      </c>
+      <c r="M51">
+        <v>500</v>
+      </c>
+      <c r="N51">
+        <v>300</v>
+      </c>
+      <c r="O51">
+        <v>300</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="0"/>
+        <v>45000</v>
+      </c>
+      <c r="Q51">
         <v>5000</v>
       </c>
-      <c r="K51">
+      <c r="R51">
+        <v>5000</v>
+      </c>
+      <c r="S51">
         <v>7199</v>
       </c>
-      <c r="L51">
+      <c r="T51">
         <v>10</v>
       </c>
-      <c r="M51">
+      <c r="U51">
         <v>6479</v>
-      </c>
-      <c r="N51" t="s">
-        <v>192</v>
-      </c>
-      <c r="O51">
-        <v>3</v>
-      </c>
-      <c r="P51">
-        <v>100</v>
-      </c>
-      <c r="Q51">
-        <v>6</v>
-      </c>
-      <c r="R51">
-        <v>15</v>
-      </c>
-      <c r="S51">
-        <v>50</v>
-      </c>
-      <c r="T51" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4007,7 +4073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AY51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
       <selection pane="topRight" activeCell="AN38" sqref="AN38"/>
@@ -4070,162 +4136,162 @@
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY1" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -4380,7 +4446,7 @@
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -4535,7 +4601,7 @@
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>0.2</v>
@@ -4690,7 +4756,7 @@
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>0.4</v>
@@ -4845,7 +4911,7 @@
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>0.7</v>
@@ -5000,7 +5066,7 @@
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>0.2</v>
@@ -5155,7 +5221,7 @@
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0.5</v>
@@ -5310,7 +5376,7 @@
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0.4</v>
@@ -5465,7 +5531,7 @@
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5620,7 +5686,7 @@
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -5775,7 +5841,7 @@
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -5930,7 +5996,7 @@
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -6085,7 +6151,7 @@
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -6240,7 +6306,7 @@
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B15">
         <v>0.7</v>
@@ -6395,7 +6461,7 @@
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -6550,7 +6616,7 @@
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -6705,7 +6771,7 @@
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -6860,7 +6926,7 @@
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -7015,7 +7081,7 @@
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -7170,7 +7236,7 @@
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -7325,7 +7391,7 @@
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -7480,7 +7546,7 @@
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -7635,7 +7701,7 @@
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -7790,7 +7856,7 @@
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -7945,7 +8011,7 @@
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -8100,7 +8166,7 @@
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -8255,7 +8321,7 @@
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -8410,7 +8476,7 @@
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -8565,7 +8631,7 @@
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -8720,7 +8786,7 @@
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -8875,7 +8941,7 @@
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -9030,7 +9096,7 @@
     </row>
     <row r="33" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="B33">
         <v>0.6</v>
@@ -9185,7 +9251,7 @@
     </row>
     <row r="34" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -9340,7 +9406,7 @@
     </row>
     <row r="35" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -9495,7 +9561,7 @@
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="B36">
         <v>0.1</v>
@@ -9650,7 +9716,7 @@
     </row>
     <row r="37" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="B37">
         <v>0.2</v>
@@ -9805,7 +9871,7 @@
     </row>
     <row r="38" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -9960,7 +10026,7 @@
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -10115,7 +10181,7 @@
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -10270,7 +10336,7 @@
     </row>
     <row r="41" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -10425,7 +10491,7 @@
     </row>
     <row r="42" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -10580,7 +10646,7 @@
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -10735,7 +10801,7 @@
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -10890,7 +10956,7 @@
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -11045,7 +11111,7 @@
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -11200,7 +11266,7 @@
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -11355,7 +11421,7 @@
     </row>
     <row r="48" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -11510,7 +11576,7 @@
     </row>
     <row r="49" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -11665,7 +11731,7 @@
     </row>
     <row r="50" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="B50">
         <v>0.1</v>
@@ -11820,7 +11886,7 @@
     </row>
     <row r="51" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="B51">
         <v>0</v>

--- a/warehouse_manager/Database/Items.xlsx
+++ b/warehouse_manager/Database/Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\Warehouse\warehouse_manager\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA284BE-6CFB-41E2-9DD5-071F98524776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C35475-468B-4E72-9D58-44ACB8854905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -865,7 +865,7 @@
   <dimension ref="A1:U51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
